--- a/Java/ClassStructure.xlsx
+++ b/Java/ClassStructure.xlsx
@@ -318,9 +318,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -353,14 +353,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,68 +391,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,24 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,12 +436,58 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -540,13 +540,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,169 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,30 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -855,11 +831,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,17 +861,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,137 +939,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,9 +1103,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,9 +1217,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,9 +1226,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,9 +1236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1586,7 +1574,7 @@
   <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,20 +1594,18 @@
     <col min="18" max="18" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="19" max="19" width="2.625" style="5" customWidth="1"/>
     <col min="20" max="20" width="25.8333333333333" style="10" customWidth="1"/>
-    <col min="21" max="24" width="2.625" style="5" customWidth="1"/>
-    <col min="25" max="27" width="2.625" style="11" customWidth="1"/>
+    <col min="21" max="27" width="2.625" style="5" customWidth="1"/>
     <col min="28" max="28" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="29" max="29" width="2.625" style="5" customWidth="1"/>
-    <col min="30" max="30" width="24.025" style="12" customWidth="1"/>
+    <col min="30" max="30" width="24.025" style="11" customWidth="1"/>
     <col min="31" max="33" width="2.625" style="5" customWidth="1"/>
     <col min="34" max="34" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="35" max="35" width="2.625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="31.25" style="13" customWidth="1"/>
-    <col min="37" max="37" width="2.625" style="5" customWidth="1"/>
-    <col min="38" max="40" width="2.625" style="11" customWidth="1"/>
+    <col min="36" max="36" width="31.25" style="12" customWidth="1"/>
+    <col min="37" max="40" width="2.625" style="5" customWidth="1"/>
     <col min="41" max="41" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="42" max="42" width="2.625" style="5" customWidth="1"/>
-    <col min="43" max="43" width="28.625" style="14" customWidth="1"/>
+    <col min="43" max="43" width="28.625" style="13" customWidth="1"/>
     <col min="44" max="44" width="2.625" style="5" customWidth="1"/>
     <col min="45" max="45" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="46" max="47" width="9" style="2"/>
@@ -1635,121 +1621,118 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="49" t="s">
+      <c r="AD1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="56" t="s">
+      <c r="AJ1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="60" t="s">
+      <c r="AQ1" s="56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:45">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
       <c r="AO2" s="8"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="33"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="32"/>
     </row>
     <row r="3" ht="14.25" spans="2:37">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="J3" s="35" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="J3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="23">
         <v>11</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AC3" s="47">
+      <c r="AC3" s="46">
         <v>11</v>
       </c>
-      <c r="AD3" s="52" t="s">
+      <c r="AD3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AI3" s="58">
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AI3" s="55">
         <v>11</v>
       </c>
-      <c r="AJ3" s="56" t="s">
+      <c r="AJ3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="58" t="s">
+      <c r="AK3" s="55" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1764,59 +1747,56 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="23">
         <v>12</v>
       </c>
-      <c r="T4" s="42" t="s">
+      <c r="T4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AC4" s="27">
+      <c r="AC4" s="26">
         <v>21</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AD4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="58">
+      <c r="AI4" s="55">
         <v>12</v>
       </c>
-      <c r="AJ4" s="56" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AK4" s="58" t="s">
+      <c r="AK4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="58" t="s">
+      <c r="AL4" s="55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:33">
+    <row r="5" spans="2:33">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1827,95 +1807,92 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="23">
         <v>13</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="V5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AC5" s="47">
+      <c r="AC5" s="46">
         <v>22</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AD5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE5" s="47" t="s">
+      <c r="AE5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
     </row>
     <row r="6" customFormat="1" ht="15" spans="2:45">
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="44">
+      <c r="S6" s="43">
         <v>14</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="U6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="V6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="44" t="s">
+      <c r="W6" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="35" t="s">
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="34" t="s">
         <v>37</v>
       </c>
       <c r="AE6" s="5"/>
@@ -1923,16 +1900,16 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="35" t="s">
+      <c r="AJ6" s="34" t="s">
         <v>38</v>
       </c>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="5"/>
-      <c r="AQ6" s="14"/>
+      <c r="AQ6" s="13"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="8"/>
     </row>
@@ -1941,12 +1918,12 @@
         <v>39</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
@@ -1954,19 +1931,19 @@
       <c r="L7" s="5"/>
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="34" t="s">
         <v>41</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="24">
+      <c r="S7" s="23">
         <v>31</v>
       </c>
-      <c r="T7" s="46" t="s">
+      <c r="T7" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="V7" s="5"/>
@@ -1976,29 +1953,29 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="8"/>
-      <c r="AC7" s="47" t="s">
+      <c r="AC7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="52" t="s">
+      <c r="AD7" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
       <c r="AH7" s="8"/>
-      <c r="AI7" s="58" t="s">
+      <c r="AI7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="56" t="s">
+      <c r="AJ7" s="53" t="s">
         <v>44</v>
       </c>
       <c r="AK7" s="5"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="5"/>
-      <c r="AQ7" s="14"/>
+      <c r="AQ7" s="13"/>
       <c r="AR7" s="5"/>
       <c r="AS7" s="8"/>
     </row>
@@ -2013,34 +1990,34 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="44">
+      <c r="S8" s="43">
         <v>32</v>
       </c>
-      <c r="T8" s="45" t="s">
+      <c r="T8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AC8" s="27" t="s">
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AC8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="49" t="s">
+      <c r="AD8" s="48" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2055,87 +2032,87 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="44" t="s">
+      <c r="S9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="U9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="48" t="s">
+      <c r="X9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="48" t="s">
+      <c r="Y9" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="48" t="s">
+      <c r="Z9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AA9" s="54"/>
-      <c r="AC9" s="27" t="s">
+      <c r="AA9" s="39"/>
+      <c r="AC9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AD9" s="49" t="s">
+      <c r="AD9" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="AE9" s="26">
         <v>11</v>
       </c>
-      <c r="AI9" s="58" t="s">
+      <c r="AI9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AJ9" s="56" t="s">
+      <c r="AJ9" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AK9" s="58">
+      <c r="AK9" s="55">
         <v>11</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:45">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="23">
         <v>11</v>
       </c>
       <c r="V10" s="5"/>
@@ -2144,107 +2121,101 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="27" t="s">
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="49" t="s">
+      <c r="AD10" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="27">
+      <c r="AE10" s="26">
         <v>22</v>
       </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="8"/>
-      <c r="AI10" s="58" t="s">
+      <c r="AI10" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AJ10" s="56" t="s">
+      <c r="AJ10" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AK10" s="58">
+      <c r="AK10" s="55">
         <v>12</v>
       </c>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="5"/>
-      <c r="AQ10" s="14"/>
+      <c r="AQ10" s="13"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="8"/>
     </row>
     <row r="11" ht="14.25" spans="1:38">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="23">
         <v>12</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AC11" s="47" t="s">
+      <c r="AC11" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD11" s="52" t="s">
+      <c r="AD11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="AE11" s="47">
+      <c r="AE11" s="46">
         <v>11</v>
       </c>
-      <c r="AF11" s="47">
+      <c r="AF11" s="46">
         <v>22</v>
       </c>
-      <c r="AG11" s="40"/>
-      <c r="AI11" s="58" t="s">
+      <c r="AG11" s="39"/>
+      <c r="AI11" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AJ11" s="56" t="s">
+      <c r="AJ11" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="AK11" s="58">
+      <c r="AK11" s="55">
         <v>11</v>
       </c>
-      <c r="AL11" s="58">
+      <c r="AL11" s="55">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15" spans="1:45">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="5"/>
@@ -2256,270 +2227,245 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="30" t="s">
         <v>74</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="44" t="s">
+      <c r="S12" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="45" t="s">
+      <c r="T12" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="44">
+      <c r="U12" s="43">
         <v>13</v>
       </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="35" t="s">
+      <c r="AD12" s="34" t="s">
         <v>76</v>
       </c>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="58" t="s">
+      <c r="AI12" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AJ12" s="56" t="s">
+      <c r="AJ12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AK12" s="58">
+      <c r="AK12" s="55">
         <v>11</v>
       </c>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="14"/>
+      <c r="AQ12" s="13"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="8"/>
     </row>
     <row r="13" ht="14.25" spans="1:31">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24">
+      <c r="C13" s="24"/>
+      <c r="D13" s="23">
         <v>14</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="T13" s="35" t="s">
+      <c r="T13" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AC13" s="27" t="s">
+      <c r="AC13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AD13" s="49" t="s">
+      <c r="AD13" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AE13" s="26">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="T14" s="35" t="s">
+      <c r="T14" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AD14" s="35" t="s">
+      <c r="AD14" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AJ14" s="35" t="s">
+      <c r="AJ14" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="14:45">
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="40"/>
-      <c r="T15" s="35" t="s">
+      <c r="Q15" s="39"/>
+      <c r="T15" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AC15" s="47" t="s">
+      <c r="AC15" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AD15" s="52" t="s">
+      <c r="AD15" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="AE15" s="47">
+      <c r="AE15" s="46">
         <v>21</v>
       </c>
-      <c r="AF15" s="47">
+      <c r="AF15" s="46">
         <v>22</v>
       </c>
-      <c r="AG15" s="40"/>
-      <c r="AI15" s="58" t="s">
+      <c r="AG15" s="39"/>
+      <c r="AI15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AJ15" s="56" t="s">
+      <c r="AJ15" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="AK15" s="58">
+      <c r="AK15" s="55">
         <v>11</v>
       </c>
-      <c r="AL15" s="58" t="s">
+      <c r="AL15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="8"/>
-      <c r="AS15" s="62"/>
+      <c r="AS15" s="58"/>
     </row>
     <row r="16" ht="14.25" spans="19:36">
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T16" s="42" t="s">
+      <c r="T16" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="U16" s="26" t="s">
+      <c r="U16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="V16" s="27" t="s">
+      <c r="V16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="W16" s="27" t="s">
+      <c r="W16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AD16" s="49"/>
-      <c r="AJ16" s="35" t="s">
+      <c r="AD16" s="48"/>
+      <c r="AJ16" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="T17" s="35" t="s">
+      <c r="T17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AI17" s="58" t="s">
+      <c r="AI17" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AJ17" s="56" t="s">
+      <c r="AJ17" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AK17" s="58">
+      <c r="AK17" s="55">
         <v>11</v>
       </c>
-      <c r="AL17" s="58">
+      <c r="AL17" s="55">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:24">
+      <c r="A18" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24">
+      <c r="C18" s="24"/>
+      <c r="D18" s="23">
         <v>14</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="42" t="s">
+      <c r="T18" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="U18" s="26" t="s">
+      <c r="U18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="V18" s="27" t="s">
+      <c r="V18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="W18" s="27" t="s">
+      <c r="W18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="X18" s="27" t="s">
+      <c r="X18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
     </row>
     <row r="19" customFormat="1" spans="2:45">
       <c r="B19" s="5"/>
-      <c r="C19" s="28"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2536,7 +2482,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="8"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="35" t="s">
+      <c r="T19" s="34" t="s">
         <v>95</v>
       </c>
       <c r="U19" s="5"/>
@@ -2548,26 +2494,26 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="12"/>
+      <c r="AD19" s="11"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="13"/>
+      <c r="AJ19" s="12"/>
       <c r="AK19" s="5"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="5"/>
-      <c r="AQ19" s="14"/>
+      <c r="AQ19" s="13"/>
       <c r="AR19" s="5"/>
       <c r="AS19" s="8"/>
     </row>
     <row r="20" customFormat="1" spans="2:45">
       <c r="B20" s="5"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2584,7 +2530,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="8"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="35" t="s">
+      <c r="T20" s="34" t="s">
         <v>96</v>
       </c>
       <c r="U20" s="5"/>
@@ -2596,26 +2542,26 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="12"/>
+      <c r="AD20" s="11"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="13"/>
+      <c r="AJ20" s="12"/>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="14"/>
+      <c r="AQ20" s="13"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="8"/>
     </row>
     <row r="21" customFormat="1" spans="2:45">
       <c r="B21" s="5"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2631,16 +2577,16 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="26" t="s">
+      <c r="V21" s="25" t="s">
         <v>62</v>
       </c>
       <c r="W21" s="5"/>
@@ -2650,26 +2596,26 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="12"/>
+      <c r="AD21" s="11"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="13"/>
+      <c r="AJ21" s="12"/>
       <c r="AK21" s="5"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
       <c r="AO21" s="8"/>
       <c r="AP21" s="5"/>
-      <c r="AQ21" s="14"/>
+      <c r="AQ21" s="13"/>
       <c r="AR21" s="5"/>
       <c r="AS21" s="8"/>
     </row>
     <row r="22" customFormat="1" spans="2:45">
       <c r="B22" s="5"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2686,7 +2632,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="8"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="35" t="s">
+      <c r="T22" s="34" t="s">
         <v>97</v>
       </c>
       <c r="U22" s="5"/>
@@ -2698,26 +2644,26 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="12"/>
+      <c r="AD22" s="11"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="5"/>
-      <c r="AJ22" s="13"/>
+      <c r="AJ22" s="12"/>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="14"/>
+      <c r="AQ22" s="13"/>
       <c r="AR22" s="5"/>
       <c r="AS22" s="8"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="2:45">
+    <row r="23" customFormat="1" spans="2:45">
       <c r="B23" s="5"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2734,7 +2680,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="8"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="35" t="s">
+      <c r="T23" s="34" t="s">
         <v>98</v>
       </c>
       <c r="U23" s="5"/>
@@ -2746,26 +2692,26 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="12"/>
+      <c r="AD23" s="11"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="13"/>
+      <c r="AJ23" s="12"/>
       <c r="AK23" s="5"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="14"/>
+      <c r="AQ23" s="13"/>
       <c r="AR23" s="5"/>
       <c r="AS23" s="8"/>
     </row>
     <row r="24" customFormat="1" ht="14.25" spans="2:45">
       <c r="B24" s="5"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2781,47 +2727,47 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="44" t="s">
+      <c r="S24" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="T24" s="45" t="s">
+      <c r="T24" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="U24" s="44">
+      <c r="U24" s="43">
         <v>14</v>
       </c>
-      <c r="V24" s="44" t="s">
+      <c r="V24" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="W24" s="44" t="s">
+      <c r="W24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="12"/>
+      <c r="AD24" s="11"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="13"/>
+      <c r="AJ24" s="12"/>
       <c r="AK24" s="5"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="14"/>
+      <c r="AQ24" s="13"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="8"/>
     </row>
     <row r="25" customFormat="1" ht="14.25" spans="2:45">
       <c r="B25" s="5"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2837,7 +2783,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="8"/>
-      <c r="T25" s="42"/>
+      <c r="T25" s="41"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -2846,26 +2792,26 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="12"/>
+      <c r="AD25" s="11"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="13"/>
+      <c r="AJ25" s="12"/>
       <c r="AK25" s="5"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="14"/>
+      <c r="AQ25" s="13"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="8"/>
     </row>
     <row r="26" customFormat="1" spans="2:45">
       <c r="B26" s="5"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2881,7 +2827,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="8"/>
-      <c r="T26" s="42"/>
+      <c r="T26" s="41"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -2890,26 +2836,26 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="12"/>
+      <c r="AD26" s="11"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="13"/>
+      <c r="AJ26" s="12"/>
       <c r="AK26" s="5"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="14"/>
+      <c r="AQ26" s="13"/>
       <c r="AR26" s="5"/>
       <c r="AS26" s="8"/>
     </row>
     <row r="27" customFormat="1" spans="2:45">
       <c r="B27" s="5"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2925,7 +2871,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="8"/>
-      <c r="T27" s="42"/>
+      <c r="T27" s="41"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
@@ -2934,26 +2880,26 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="12"/>
+      <c r="AD27" s="11"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="13"/>
+      <c r="AJ27" s="12"/>
       <c r="AK27" s="5"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="14"/>
+      <c r="AQ27" s="13"/>
       <c r="AR27" s="5"/>
       <c r="AS27" s="8"/>
     </row>
     <row r="28" customFormat="1" spans="2:45">
       <c r="B28" s="3"/>
-      <c r="C28" s="29"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2978,26 +2924,26 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="12"/>
+      <c r="AD28" s="11"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="13"/>
+      <c r="AJ28" s="12"/>
       <c r="AK28" s="5"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="14"/>
+      <c r="AQ28" s="13"/>
       <c r="AR28" s="5"/>
       <c r="AS28" s="8"/>
     </row>
     <row r="29" customFormat="1" spans="2:45">
       <c r="B29" s="3"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3017,31 +2963,31 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="12"/>
+      <c r="AD29" s="11"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="13"/>
+      <c r="AJ29" s="12"/>
       <c r="AK29" s="5"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="14"/>
+      <c r="AQ29" s="13"/>
       <c r="AR29" s="5"/>
       <c r="AS29" s="8"/>
     </row>
     <row r="30" customFormat="1" spans="2:45">
       <c r="B30" s="3"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3061,31 +3007,31 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="12"/>
+      <c r="AD30" s="11"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="13"/>
+      <c r="AJ30" s="12"/>
       <c r="AK30" s="5"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="14"/>
+      <c r="AQ30" s="13"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="8"/>
     </row>
     <row r="31" customFormat="1" spans="2:45">
       <c r="B31" s="3"/>
-      <c r="C31" s="29"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3107,30 +3053,30 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="12"/>
+      <c r="AD31" s="11"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="5"/>
-      <c r="AJ31" s="13"/>
+      <c r="AJ31" s="12"/>
       <c r="AK31" s="5"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="14"/>
+      <c r="AQ31" s="13"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="8"/>
     </row>
     <row r="32" customFormat="1" spans="3:45">
-      <c r="C32" s="29"/>
+      <c r="C32" s="28"/>
       <c r="H32" s="6"/>
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
@@ -3148,31 +3094,31 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="12"/>
+      <c r="AD32" s="11"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="13"/>
+      <c r="AJ32" s="12"/>
       <c r="AK32" s="5"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="14"/>
+      <c r="AQ32" s="13"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="8"/>
     </row>
     <row r="33" customFormat="1" spans="2:45">
       <c r="B33" s="3"/>
-      <c r="C33" s="29"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3194,31 +3140,31 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="12"/>
+      <c r="AD33" s="11"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="5"/>
-      <c r="AJ33" s="13"/>
+      <c r="AJ33" s="12"/>
       <c r="AK33" s="5"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="14"/>
+      <c r="AQ33" s="13"/>
       <c r="AR33" s="5"/>
       <c r="AS33" s="8"/>
     </row>
     <row r="34" customFormat="1" spans="2:45">
       <c r="B34" s="3"/>
-      <c r="C34" s="29"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3240,31 +3186,31 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="12"/>
+      <c r="AD34" s="11"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="13"/>
+      <c r="AJ34" s="12"/>
       <c r="AK34" s="5"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="14"/>
+      <c r="AQ34" s="13"/>
       <c r="AR34" s="5"/>
       <c r="AS34" s="8"/>
     </row>
     <row r="35" customFormat="1" spans="2:45">
       <c r="B35" s="3"/>
-      <c r="C35" s="29"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3286,31 +3232,31 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="12"/>
+      <c r="AD35" s="11"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="13"/>
+      <c r="AJ35" s="12"/>
       <c r="AK35" s="5"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="11"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="14"/>
+      <c r="AQ35" s="13"/>
       <c r="AR35" s="5"/>
       <c r="AS35" s="8"/>
     </row>
     <row r="36" customFormat="1" spans="2:45">
       <c r="B36" s="3"/>
-      <c r="C36" s="29"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3332,25 +3278,25 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="12"/>
+      <c r="AD36" s="11"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="13"/>
+      <c r="AJ36" s="12"/>
       <c r="AK36" s="5"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="14"/>
+      <c r="AQ36" s="13"/>
       <c r="AR36" s="5"/>
       <c r="AS36" s="8"/>
     </row>

--- a/Java/ClassStructure.xlsx
+++ b/Java/ClassStructure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
   <si>
     <t>CLASS</t>
   </si>
@@ -280,6 +280,9 @@
     <t>生成与11同名的文件夹并用D复制文件</t>
   </si>
   <si>
+    <t>boolean batFFR()</t>
+  </si>
+  <si>
     <t>String pathChooseVideo()</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>复制文件到C生成的文件夹</t>
-  </si>
-  <si>
-    <t>boolean batFFR()</t>
   </si>
   <si>
     <t>void copyVideoFile()</t>
@@ -318,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -345,8 +345,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +385,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -374,19 +406,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,8 +427,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,39 +451,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -461,29 +476,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,13 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +558,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,31 +624,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,121 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,21 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -797,6 +782,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -826,22 +826,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,32 +879,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,17 +896,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,137 +939,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,6 +1088,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1118,124 +1121,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1571,10 +1574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AV94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1583,36 +1586,37 @@
     <col min="2" max="2" width="17.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="4" customWidth="1"/>
     <col min="4" max="7" width="2.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="0.158333333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.0833333333333" style="7" customWidth="1"/>
-    <col min="11" max="12" width="2.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="14" max="14" width="2.625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="27.775" style="9" customWidth="1"/>
-    <col min="16" max="17" width="2.625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="19" max="19" width="2.625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="25.8333333333333" style="10" customWidth="1"/>
-    <col min="21" max="27" width="2.625" style="5" customWidth="1"/>
-    <col min="28" max="28" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="29" max="29" width="2.625" style="5" customWidth="1"/>
-    <col min="30" max="30" width="24.025" style="11" customWidth="1"/>
-    <col min="31" max="33" width="2.625" style="5" customWidth="1"/>
-    <col min="34" max="34" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="35" max="35" width="2.625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="31.25" style="12" customWidth="1"/>
-    <col min="37" max="40" width="2.625" style="5" customWidth="1"/>
-    <col min="41" max="41" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="42" max="42" width="2.625" style="5" customWidth="1"/>
-    <col min="43" max="43" width="28.625" style="13" customWidth="1"/>
-    <col min="44" max="44" width="2.625" style="5" customWidth="1"/>
-    <col min="45" max="45" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="46" max="47" width="9" style="2"/>
-    <col min="50" max="16384" width="9" style="2"/>
+    <col min="8" max="10" width="2.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="0.158333333333333" style="7" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="27.0833333333333" style="8" customWidth="1"/>
+    <col min="14" max="15" width="2.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="27.775" style="10" customWidth="1"/>
+    <col min="19" max="20" width="2.625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="22" max="22" width="2.625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="25.8333333333333" style="11" customWidth="1"/>
+    <col min="24" max="30" width="2.625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="32" max="32" width="2.625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="24.025" style="12" customWidth="1"/>
+    <col min="34" max="36" width="2.625" style="5" customWidth="1"/>
+    <col min="37" max="37" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="38" max="38" width="2.625" style="5" customWidth="1"/>
+    <col min="39" max="39" width="31.25" style="13" customWidth="1"/>
+    <col min="40" max="43" width="2.625" style="5" customWidth="1"/>
+    <col min="44" max="44" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="45" max="45" width="2.625" style="5" customWidth="1"/>
+    <col min="46" max="46" width="28.625" style="14" customWidth="1"/>
+    <col min="47" max="47" width="2.625" style="5" customWidth="1"/>
+    <col min="48" max="48" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="49" max="50" width="9" style="2"/>
+    <col min="53" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:43">
+    <row r="1" ht="14.25" spans="2:46">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1621,122 +1625,131 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="M1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="R1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AG1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="53" t="s">
+      <c r="AM1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="56" t="s">
+      <c r="AT1" s="57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:45">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="32"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:37">
+    <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:48">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="32"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:40">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="J3" s="34" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="M3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="R3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="23">
+      <c r="V3" s="23">
         <v>11</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="W3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="X3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="Y3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="46">
+      <c r="AF3" s="48">
         <v>11</v>
       </c>
-      <c r="AD3" s="50" t="s">
+      <c r="AG3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="46" t="s">
+      <c r="AH3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AI3" s="55">
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AL3" s="27">
         <v>11</v>
       </c>
-      <c r="AJ3" s="53" t="s">
+      <c r="AM3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="55" t="s">
+      <c r="AN3" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:38">
+    <row r="4" ht="14.25" spans="2:41">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1747,56 +1760,59 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="N4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="Q4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="R4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="23">
+      <c r="V4" s="23">
         <v>12</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="W4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="X4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="Y4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AF4" s="26">
         <v>21</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AG4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="26" t="s">
+      <c r="AH4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="55">
+      <c r="AL4" s="27">
         <v>12</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AM4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AK4" s="55" t="s">
+      <c r="AN4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="55" t="s">
+      <c r="AO4" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:33">
+    <row r="5" ht="14.25" spans="2:36">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1807,179 +1823,188 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="J5" s="34" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="R5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="23">
+      <c r="V5" s="23">
         <v>13</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="W5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="23" t="s">
+      <c r="X5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="Y5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AF5" s="48">
         <v>22</v>
       </c>
-      <c r="AD5" s="50" t="s">
+      <c r="AG5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AE5" s="46" t="s">
+      <c r="AH5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-    </row>
-    <row r="6" customFormat="1" ht="15" spans="2:45">
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+    </row>
+    <row r="6" customFormat="1" ht="15" spans="2:48">
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="36" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="M6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="N6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="25" t="s">
+      <c r="O6" s="38"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="R6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="S6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="43">
+      <c r="T6" s="5"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="44">
         <v>14</v>
       </c>
-      <c r="T6" s="44" t="s">
+      <c r="W6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="43" t="s">
+      <c r="X6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="43" t="s">
+      <c r="Y6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="Z6" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="34" t="s">
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="8"/>
+      <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="34" t="s">
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
-      <c r="AO6" s="8"/>
+      <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="8"/>
-    </row>
-    <row r="7" customFormat="1" ht="15" spans="2:45">
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="9"/>
+    </row>
+    <row r="7" customFormat="1" ht="15" spans="2:48">
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="5"/>
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="5"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="23">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="23">
         <v>31</v>
       </c>
-      <c r="T7" s="45" t="s">
+      <c r="W7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="23" t="s">
+      <c r="X7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="46" t="s">
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="50" t="s">
+      <c r="AG7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="55" t="s">
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="53" t="s">
+      <c r="AM7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
-      <c r="AO7" s="8"/>
+      <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="8"/>
-    </row>
-    <row r="8" ht="15" spans="2:30">
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="9"/>
+    </row>
+    <row r="8" ht="15" spans="2:33">
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
@@ -1990,38 +2015,41 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="N8" s="25" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="Q8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="R8" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="S8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="43">
+      <c r="V8" s="44">
         <v>32</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="W8" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="43" t="s">
+      <c r="X8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AC8" s="26" t="s">
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AF8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="48" t="s">
+      <c r="AG8" s="52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="2:37">
+    <row r="9" ht="15" spans="2:40">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -2032,127 +2060,135 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="O9" s="34" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="R9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="43" t="s">
+      <c r="V9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="44" t="s">
+      <c r="W9" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="X9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="46" t="s">
+      <c r="Y9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="46" t="s">
+      <c r="Z9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="AA9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="47" t="s">
+      <c r="AB9" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="47" t="s">
+      <c r="AC9" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AA9" s="39"/>
-      <c r="AC9" s="26" t="s">
+      <c r="AD9" s="38"/>
+      <c r="AF9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AD9" s="48" t="s">
+      <c r="AG9" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AH9" s="26">
         <v>11</v>
       </c>
-      <c r="AI9" s="55" t="s">
+      <c r="AL9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AJ9" s="53" t="s">
+      <c r="AM9" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AK9" s="55">
+      <c r="AN9" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:48">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="5"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="R10" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="S10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="23" t="s">
+      <c r="T10" s="5"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="W10" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="23">
+      <c r="X10" s="23">
         <v>11</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="Y10" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="26" t="s">
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="48" t="s">
+      <c r="AG10" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AH10" s="26">
         <v>22</v>
       </c>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="55" t="s">
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AJ10" s="53" t="s">
+      <c r="AM10" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AK10" s="55">
+      <c r="AN10" s="27">
         <v>12</v>
       </c>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="8"/>
+      <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:38">
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:41">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -2169,45 +2205,57 @@
       <c r="F11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="G11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="V11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="W11" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="U11" s="23">
+      <c r="X11" s="23">
         <v>12</v>
       </c>
-      <c r="AC11" s="46" t="s">
+      <c r="Y11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AD11" s="50" t="s">
+      <c r="AG11" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AE11" s="46">
+      <c r="AH11" s="48">
         <v>11</v>
       </c>
-      <c r="AF11" s="46">
+      <c r="AI11" s="48">
         <v>22</v>
       </c>
-      <c r="AG11" s="39"/>
-      <c r="AI11" s="55" t="s">
+      <c r="AJ11" s="38"/>
+      <c r="AL11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="AJ11" s="53" t="s">
+      <c r="AM11" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="AK11" s="55">
+      <c r="AN11" s="27">
         <v>11</v>
       </c>
-      <c r="AL11" s="55">
+      <c r="AO11" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:45">
+    <row r="12" customFormat="1" ht="15" spans="1:48">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -2218,67 +2266,76 @@
       <c r="D12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="5"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="R12" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="43" t="s">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="44" t="s">
+      <c r="W12" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="43">
+      <c r="X12" s="44">
         <v>13</v>
       </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="34" t="s">
+      <c r="Y12" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="55" t="s">
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AJ12" s="53" t="s">
+      <c r="AM12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AK12" s="55">
+      <c r="AN12" s="27">
         <v>11</v>
       </c>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="8"/>
+      <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="8"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:31">
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="9"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:34">
       <c r="A13" s="23" t="s">
         <v>78</v>
       </c>
@@ -2295,23 +2352,23 @@
       <c r="F13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="R13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="T13" s="34" t="s">
+      <c r="W13" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AC13" s="26" t="s">
+      <c r="AF13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AD13" s="48" t="s">
+      <c r="AG13" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AE13" s="26">
+      <c r="AH13" s="26">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" s="23" t="s">
         <v>12</v>
       </c>
@@ -2325,983 +2382,1340 @@
       <c r="E14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="R14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="T14" s="34" t="s">
+      <c r="W14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AD14" s="34" t="s">
+      <c r="AG14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AJ14" s="34" t="s">
+      <c r="AM14" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="14:45">
-      <c r="N15" s="38" t="s">
+    <row r="15" ht="14.25" spans="1:48">
+      <c r="A15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="R15" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="38"/>
+      <c r="W15" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF15" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG15" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH15" s="48">
+        <v>21</v>
+      </c>
+      <c r="AI15" s="48">
+        <v>22</v>
+      </c>
+      <c r="AJ15" s="38"/>
+      <c r="AL15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM15" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN15" s="27">
+        <v>11</v>
+      </c>
+      <c r="AO15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV15" s="59"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:39">
+      <c r="A16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23">
+        <v>14</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG16" s="52"/>
+      <c r="AM16" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="28"/>
+      <c r="W17" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM17" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN17" s="27">
+        <v>11</v>
+      </c>
+      <c r="AO17" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="28"/>
+      <c r="V18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="P15" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="39"/>
-      <c r="T15" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC15" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD15" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE15" s="46">
-        <v>21</v>
-      </c>
-      <c r="AF15" s="46">
-        <v>22</v>
-      </c>
-      <c r="AG15" s="39"/>
-      <c r="AI15" s="55" t="s">
+      <c r="X18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AJ15" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK15" s="55">
-        <v>11</v>
-      </c>
-      <c r="AL15" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS15" s="58"/>
-    </row>
-    <row r="16" ht="14.25" spans="19:36">
-      <c r="S16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="26" t="s">
+      <c r="Z18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AD16" s="48"/>
-      <c r="AJ16" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38">
-      <c r="A17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI17" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ17" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK17" s="55">
-        <v>11</v>
-      </c>
-      <c r="AL17" s="55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23">
-        <v>14</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T18" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="U18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="W18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="X18" s="26" t="s">
+      <c r="AA18" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="2:45">
+    <row r="19" customFormat="1" spans="2:48">
       <c r="B19" s="5"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="5"/>
       <c r="M19" s="8"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="9"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="5"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="9"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="8"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="9"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
+      <c r="AM19" s="13"/>
       <c r="AN19" s="5"/>
-      <c r="AO19" s="8"/>
+      <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="8"/>
-    </row>
-    <row r="20" customFormat="1" spans="2:45">
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="9"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:48">
       <c r="B20" s="5"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="5"/>
       <c r="M20" s="8"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="5"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="8"/>
+      <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="9"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="8"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="9"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
+      <c r="AM20" s="13"/>
       <c r="AN20" s="5"/>
-      <c r="AO20" s="8"/>
+      <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="8"/>
-    </row>
-    <row r="21" customFormat="1" spans="2:45">
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="9"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:48">
       <c r="B21" s="5"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="5"/>
       <c r="M21" s="8"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="23" t="s">
+      <c r="R21" s="10"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="41" t="s">
+      <c r="W21" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="U21" s="23" t="s">
+      <c r="X21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="25" t="s">
+      <c r="Y21" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="8"/>
+      <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="9"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="8"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="9"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
+      <c r="AM21" s="13"/>
       <c r="AN21" s="5"/>
-      <c r="AO21" s="8"/>
+      <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="8"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:45">
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="9"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:48">
       <c r="B22" s="5"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="5"/>
       <c r="M22" s="8"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="10"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="34" t="s">
+      <c r="T22" s="5"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="8"/>
+      <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="9"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="8"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
+      <c r="AM22" s="13"/>
       <c r="AN22" s="5"/>
-      <c r="AO22" s="8"/>
+      <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="8"/>
-    </row>
-    <row r="23" customFormat="1" spans="2:45">
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="9"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:48">
       <c r="B23" s="5"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="5"/>
       <c r="M23" s="8"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="9"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="8"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="34" t="s">
+      <c r="T23" s="5"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="8"/>
+      <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="9"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="8"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="9"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
+      <c r="AM23" s="13"/>
       <c r="AN23" s="5"/>
-      <c r="AO23" s="8"/>
+      <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="8"/>
-    </row>
-    <row r="24" customFormat="1" ht="14.25" spans="2:45">
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="9"/>
+    </row>
+    <row r="24" customFormat="1" ht="14.25" spans="2:48">
       <c r="B24" s="5"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="5"/>
       <c r="M24" s="8"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="43" t="s">
+      <c r="R24" s="10"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="T24" s="44" t="s">
+      <c r="W24" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="U24" s="43">
+      <c r="X24" s="44">
         <v>14</v>
       </c>
-      <c r="V24" s="43" t="s">
+      <c r="Y24" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="W24" s="43" t="s">
+      <c r="Z24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="5"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="9"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="8"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="9"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
+      <c r="AM24" s="13"/>
       <c r="AN24" s="5"/>
-      <c r="AO24" s="8"/>
+      <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="8"/>
-    </row>
-    <row r="25" customFormat="1" ht="14.25" spans="2:45">
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="9"/>
+    </row>
+    <row r="25" customFormat="1" ht="14.25" spans="2:48">
       <c r="B25" s="5"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="5"/>
       <c r="M25" s="8"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="9"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="8"/>
-      <c r="T25" s="41"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="9"/>
+      <c r="W25" s="41"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="8"/>
+      <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="9"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="8"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="9"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
+      <c r="AM25" s="13"/>
       <c r="AN25" s="5"/>
-      <c r="AO25" s="8"/>
+      <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="8"/>
-    </row>
-    <row r="26" customFormat="1" spans="2:45">
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="9"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:48">
       <c r="B26" s="5"/>
-      <c r="C26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="5"/>
       <c r="M26" s="8"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="9"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="8"/>
-      <c r="T26" s="41"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="9"/>
+      <c r="W26" s="41"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="8"/>
+      <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="9"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="8"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="9"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
+      <c r="AM26" s="13"/>
       <c r="AN26" s="5"/>
-      <c r="AO26" s="8"/>
+      <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="8"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:45">
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="9"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:48">
       <c r="B27" s="5"/>
-      <c r="C27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="5"/>
       <c r="M27" s="8"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="8"/>
-      <c r="T27" s="41"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="9"/>
+      <c r="W27" s="41"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="8"/>
+      <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="9"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="8"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="9"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
+      <c r="AM27" s="13"/>
       <c r="AN27" s="5"/>
-      <c r="AO27" s="8"/>
+      <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="8"/>
-    </row>
-    <row r="28" customFormat="1" spans="2:45">
-      <c r="B28" s="3"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="9"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:48">
+      <c r="B28" s="5"/>
       <c r="C28" s="28"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="5"/>
       <c r="M28" s="8"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="9"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="8"/>
-      <c r="T28" s="10"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="9"/>
+      <c r="W28" s="11"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="8"/>
+      <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="9"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="8"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="9"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
+      <c r="AM28" s="13"/>
       <c r="AN28" s="5"/>
-      <c r="AO28" s="8"/>
+      <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="8"/>
-    </row>
-    <row r="29" customFormat="1" spans="2:45">
-      <c r="B29" s="3"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="9"/>
+    </row>
+    <row r="29" customFormat="1" spans="2:48">
+      <c r="B29" s="5"/>
       <c r="C29" s="28"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="5"/>
       <c r="M29" s="8"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="9"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="8"/>
-      <c r="T29" s="10"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="9"/>
+      <c r="W29" s="11"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="8"/>
+      <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="9"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="8"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="9"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
+      <c r="AM29" s="13"/>
       <c r="AN29" s="5"/>
-      <c r="AO29" s="8"/>
+      <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="8"/>
-    </row>
-    <row r="30" customFormat="1" spans="2:45">
-      <c r="B30" s="3"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="14"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="9"/>
+    </row>
+    <row r="30" customFormat="1" spans="2:48">
+      <c r="B30" s="5"/>
       <c r="C30" s="28"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="5"/>
       <c r="M30" s="8"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="9"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="8"/>
-      <c r="T30" s="10"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="9"/>
+      <c r="W30" s="11"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="8"/>
+      <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="9"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="8"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="9"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
+      <c r="AM30" s="13"/>
       <c r="AN30" s="5"/>
-      <c r="AO30" s="8"/>
+      <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="8"/>
-    </row>
-    <row r="31" customFormat="1" spans="2:45">
-      <c r="B31" s="3"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="9"/>
+    </row>
+    <row r="31" customFormat="1" spans="2:48">
+      <c r="B31" s="5"/>
       <c r="C31" s="28"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="5"/>
       <c r="M31" s="8"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="8"/>
+      <c r="R31" s="10"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="9"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
+      <c r="W31" s="11"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="8"/>
+      <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="9"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="8"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="9"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
+      <c r="AM31" s="13"/>
       <c r="AN31" s="5"/>
-      <c r="AO31" s="8"/>
+      <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="8"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:45">
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="9"/>
+    </row>
+    <row r="32" customFormat="1" spans="2:48">
+      <c r="B32" s="5"/>
       <c r="C32" s="28"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="5"/>
       <c r="M32" s="8"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="8"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="9"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+      <c r="W32" s="11"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="8"/>
+      <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="9"/>
       <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="8"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="9"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
+      <c r="AM32" s="13"/>
       <c r="AN32" s="5"/>
-      <c r="AO32" s="8"/>
+      <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="8"/>
-    </row>
-    <row r="33" customFormat="1" spans="2:45">
-      <c r="B33" s="3"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="9"/>
+    </row>
+    <row r="33" customFormat="1" spans="2:48">
+      <c r="B33" s="5"/>
       <c r="C33" s="28"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="5"/>
       <c r="M33" s="8"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="9"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="8"/>
+      <c r="R33" s="10"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="9"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+      <c r="W33" s="11"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="8"/>
+      <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="9"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="8"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="9"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
+      <c r="AM33" s="13"/>
       <c r="AN33" s="5"/>
-      <c r="AO33" s="8"/>
+      <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="13"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="8"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:45">
-      <c r="B34" s="3"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="9"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:48">
+      <c r="B34" s="5"/>
       <c r="C34" s="28"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="5"/>
       <c r="M34" s="8"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="9"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="8"/>
+      <c r="R34" s="10"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="9"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
+      <c r="W34" s="11"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="8"/>
+      <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="9"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="8"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="9"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
+      <c r="AM34" s="13"/>
       <c r="AN34" s="5"/>
-      <c r="AO34" s="8"/>
+      <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="8"/>
-    </row>
-    <row r="35" customFormat="1" spans="2:45">
-      <c r="B35" s="3"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="9"/>
+    </row>
+    <row r="35" customFormat="1" spans="2:48">
+      <c r="B35" s="5"/>
       <c r="C35" s="28"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="5"/>
       <c r="M35" s="8"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="9"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="8"/>
+      <c r="R35" s="10"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="9"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
+      <c r="W35" s="11"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="8"/>
+      <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="9"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="8"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="9"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
+      <c r="AM35" s="13"/>
       <c r="AN35" s="5"/>
-      <c r="AO35" s="8"/>
+      <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="8"/>
-    </row>
-    <row r="36" customFormat="1" spans="2:45">
-      <c r="B36" s="3"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="9"/>
+    </row>
+    <row r="36" customFormat="1" spans="2:48">
+      <c r="B36" s="5"/>
       <c r="C36" s="28"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="5"/>
       <c r="M36" s="8"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="9"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="8"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="9"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
+      <c r="W36" s="11"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="8"/>
+      <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="9"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="8"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="9"/>
       <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
+      <c r="AM36" s="13"/>
       <c r="AN36" s="5"/>
-      <c r="AO36" s="8"/>
+      <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="8"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="9"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="28"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="28"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="28"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="28"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="28"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="28"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="28"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="28"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="28"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="28"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="28"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="28"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="28"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="28"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="28"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="28"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="28"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="28"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="28"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="28"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="28"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="28"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="28"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="28"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="28"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="28"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="28"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="28"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="28"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="28"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="28"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="28"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="28"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="28"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="100">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -3322,6 +3736,8 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -3333,6 +3749,73 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Java/ClassStructure.xlsx
+++ b/Java/ClassStructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13140"/>
+    <workbookView windowWidth="13260" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>CLASS</t>
   </si>
@@ -61,36 +61,36 @@
     <t>C</t>
   </si>
   <si>
+    <t>String folderPath</t>
+  </si>
+  <si>
+    <t>PrivateFinal变量</t>
+  </si>
+  <si>
+    <t>22-29</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>void runPythonMcpi()</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>String pathMainFile()</t>
+  </si>
+  <si>
+    <t>int heightInt</t>
+  </si>
+  <si>
+    <t>String originName</t>
+  </si>
+  <si>
     <t>File originFile</t>
   </si>
   <si>
-    <t>PrivateFinal变量</t>
-  </si>
-  <si>
-    <t>22-29</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>void runPythonMcpi()</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>String pathMainFile()</t>
-  </si>
-  <si>
-    <t>int heightInt</t>
-  </si>
-  <si>
-    <t>String originName</t>
-  </si>
-  <si>
-    <t>String folderPath</t>
-  </si>
-  <si>
     <t>PublicFinal变量</t>
   </si>
   <si>
@@ -187,30 +187,33 @@
     <t>f</t>
   </si>
   <si>
+    <t>Bd</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>String getNowName()</t>
+  </si>
+  <si>
+    <t>File getOriginFile()</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>String pathBinFolder()</t>
+  </si>
+  <si>
+    <t>int getWidthInt()</t>
+  </si>
+  <si>
     <t>Bc</t>
   </si>
   <si>
-    <t>Bb</t>
-  </si>
-  <si>
-    <t>String getNowName()</t>
-  </si>
-  <si>
-    <t>File getOriginFile()</t>
-  </si>
-  <si>
-    <t>MAIN</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>String pathBinFolder()</t>
-  </si>
-  <si>
-    <t>int getWidthInt()</t>
-  </si>
-  <si>
     <t>String getPath()</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
     <t>int getHeightInt()</t>
   </si>
   <si>
-    <t>Bd</t>
-  </si>
-  <si>
     <t>String getNowFilePath()</t>
   </si>
   <si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>修正文件不合法的部分（如有）</t>
-  </si>
-  <si>
-    <t>void setFileName(String fileName)</t>
   </si>
   <si>
     <t>F</t>
@@ -1217,28 +1214,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1574,10 +1571,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV94"/>
+  <dimension ref="A1:AZ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1599,24 +1596,25 @@
     <col min="22" max="22" width="2.625" style="5" customWidth="1"/>
     <col min="23" max="23" width="25.8333333333333" style="11" customWidth="1"/>
     <col min="24" max="30" width="2.625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="0.158333333333333" style="9" customWidth="1"/>
-    <col min="32" max="32" width="2.625" style="5" customWidth="1"/>
-    <col min="33" max="33" width="24.025" style="12" customWidth="1"/>
-    <col min="34" max="36" width="2.625" style="5" customWidth="1"/>
-    <col min="37" max="37" width="0.158333333333333" style="9" customWidth="1"/>
-    <col min="38" max="38" width="2.625" style="5" customWidth="1"/>
-    <col min="39" max="39" width="31.25" style="13" customWidth="1"/>
-    <col min="40" max="43" width="2.625" style="5" customWidth="1"/>
-    <col min="44" max="44" width="0.158333333333333" style="9" customWidth="1"/>
-    <col min="45" max="45" width="2.625" style="5" customWidth="1"/>
-    <col min="46" max="46" width="28.625" style="14" customWidth="1"/>
-    <col min="47" max="47" width="2.625" style="5" customWidth="1"/>
+    <col min="31" max="34" width="2.625" style="6" customWidth="1"/>
+    <col min="35" max="35" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="36" max="36" width="2.625" style="5" customWidth="1"/>
+    <col min="37" max="37" width="24.025" style="12" customWidth="1"/>
+    <col min="38" max="40" width="2.625" style="5" customWidth="1"/>
+    <col min="41" max="41" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="42" max="42" width="2.625" style="5" customWidth="1"/>
+    <col min="43" max="43" width="31.25" style="13" customWidth="1"/>
+    <col min="44" max="47" width="2.625" style="5" customWidth="1"/>
     <col min="48" max="48" width="0.158333333333333" style="9" customWidth="1"/>
-    <col min="49" max="50" width="9" style="2"/>
-    <col min="53" max="16384" width="9" style="2"/>
+    <col min="49" max="49" width="2.625" style="5" customWidth="1"/>
+    <col min="50" max="50" width="28.625" style="14" customWidth="1"/>
+    <col min="51" max="51" width="2.625" style="5" customWidth="1"/>
+    <col min="52" max="52" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="53" max="54" width="9" style="2"/>
+    <col min="57" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:46">
+    <row r="1" ht="14.25" spans="2:50">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1637,17 +1635,17 @@
       <c r="W1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AK1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="53" t="s">
+      <c r="AQ1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="57" t="s">
+      <c r="AX1" s="57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:48">
+    <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:52">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="15"/>
@@ -1677,26 +1675,30 @@
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="32"/>
       <c r="AJ2" s="15"/>
-      <c r="AK2" s="32"/>
+      <c r="AK2" s="51"/>
       <c r="AL2" s="15"/>
-      <c r="AM2" s="55"/>
+      <c r="AM2" s="15"/>
       <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="9"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
-      <c r="AT2" s="58"/>
+      <c r="AT2" s="15"/>
       <c r="AU2" s="15"/>
-      <c r="AV2" s="32"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:40">
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="32"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:45">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1728,28 +1730,31 @@
       <c r="Y3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="48">
+      <c r="AJ3" s="48">
         <v>11</v>
       </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AK3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="48" t="s">
+      <c r="AL3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AL3" s="27">
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AP3" s="27">
         <v>11</v>
       </c>
-      <c r="AM3" s="53" t="s">
+      <c r="AQ3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="27" t="s">
+      <c r="AR3" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="2:41">
+      <c r="AS3" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="2:44">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1790,29 +1795,26 @@
       <c r="Y4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" s="26">
+      <c r="AJ4" s="26">
         <v>21</v>
       </c>
-      <c r="AG4" s="52" t="s">
+      <c r="AK4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="26" t="s">
+      <c r="AL4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="27">
-        <v>12</v>
-      </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AP4" s="27">
+        <v>21</v>
+      </c>
+      <c r="AQ4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="27" t="s">
+      <c r="AR4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AO4" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:36">
+    </row>
+    <row r="5" ht="14.25" spans="2:40">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1844,19 +1846,23 @@
       <c r="Y5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="48">
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AJ5" s="48">
         <v>22</v>
       </c>
-      <c r="AG5" s="56" t="s">
+      <c r="AK5" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AH5" s="48" t="s">
+      <c r="AL5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-    </row>
-    <row r="6" customFormat="1" ht="15" spans="2:48">
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+    </row>
+    <row r="6" customFormat="1" ht="15" spans="2:52">
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1912,30 +1918,34 @@
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
       <c r="AD6" s="38"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="33" t="s">
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="9"/>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="33" t="s">
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="9"/>
+      <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="14"/>
+      <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
       <c r="AV6" s="9"/>
-    </row>
-    <row r="7" customFormat="1" ht="15" spans="2:48">
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="9"/>
+    </row>
+    <row r="7" customFormat="1" ht="15" spans="2:52">
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1977,34 +1987,38 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="48" t="s">
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="56" t="s">
+      <c r="AK7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="27" t="s">
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AM7" s="53" t="s">
+      <c r="AQ7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="9"/>
+      <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="14"/>
+      <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
       <c r="AV7" s="9"/>
-    </row>
-    <row r="8" ht="15" spans="2:33">
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="9"/>
+    </row>
+    <row r="8" ht="15" spans="2:37">
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
@@ -2042,14 +2056,18 @@
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
       <c r="AD8" s="38"/>
-      <c r="AF8" s="26" t="s">
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AJ8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AG8" s="52" t="s">
+      <c r="AK8" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="2:40">
+    <row r="9" ht="15" spans="2:44">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -2079,38 +2097,44 @@
         <v>11</v>
       </c>
       <c r="Z9" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AA9" s="50" t="s">
+      <c r="AB9" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AB9" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC9" s="50" t="s">
+      <c r="AD9" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AD9" s="38"/>
-      <c r="AF9" s="26" t="s">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AJ9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AG9" s="52" t="s">
+      <c r="AK9" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="AH9" s="26">
+      <c r="AL9" s="26">
         <v>11</v>
       </c>
-      <c r="AL9" s="27" t="s">
+      <c r="AP9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AM9" s="53" t="s">
+      <c r="AQ9" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AN9" s="27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:48">
+      <c r="AR9" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:52">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
         <v>61</v>
@@ -2157,38 +2181,42 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG10" s="52" t="s">
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AH10" s="26">
+      <c r="AK10" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL10" s="26">
         <v>22</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="27" t="s">
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AM10" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN10" s="27">
-        <v>12</v>
-      </c>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="9"/>
+      <c r="AQ10" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR10" s="27">
+        <v>11</v>
+      </c>
       <c r="AS10" s="5"/>
-      <c r="AT10" s="14"/>
+      <c r="AT10" s="5"/>
       <c r="AU10" s="5"/>
       <c r="AV10" s="9"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:41">
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:45">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -2209,19 +2237,19 @@
         <v>11</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V11" s="23" t="s">
         <v>58</v>
       </c>
       <c r="W11" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X11" s="23">
         <v>12</v>
@@ -2229,33 +2257,37 @@
       <c r="Y11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AF11" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG11" s="56" t="s">
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AJ11" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK11" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AH11" s="48">
+      <c r="AL11" s="48">
         <v>11</v>
       </c>
-      <c r="AI11" s="48">
+      <c r="AM11" s="48">
         <v>22</v>
       </c>
-      <c r="AJ11" s="38"/>
-      <c r="AL11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM11" s="53" t="s">
+      <c r="AN11" s="38"/>
+      <c r="AP11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ11" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AN11" s="27">
+      <c r="AR11" s="27">
         <v>11</v>
       </c>
-      <c r="AO11" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="15" spans="1:48">
+      <c r="AS11" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" spans="1:52">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -2267,10 +2299,7 @@
         <v>62</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
@@ -2292,7 +2321,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="9"/>
       <c r="V12" s="44" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="W12" s="45" t="s">
         <v>75</v>
@@ -2308,39 +2337,37 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
       <c r="AD12" s="38"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="33" t="s">
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM12" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN12" s="27">
-        <v>11</v>
-      </c>
-      <c r="AO12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="9"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="9"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
-      <c r="AT12" s="14"/>
+      <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="9"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:34">
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="9"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:38">
       <c r="A13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="23">
@@ -2353,27 +2380,31 @@
         <v>36</v>
       </c>
       <c r="R13" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="W13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="W13" s="33" t="s">
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AJ13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK13" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AF13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG13" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH13" s="26">
+      <c r="AL13" s="26">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:43">
       <c r="A14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="23" t="s">
@@ -2383,84 +2414,89 @@
         <v>62</v>
       </c>
       <c r="R14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="W14" s="33" t="s">
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AK14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AG14" s="33" t="s">
+      <c r="AQ14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AM14" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:48">
+    </row>
+    <row r="15" ht="14.25" spans="1:52">
       <c r="A15" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S15" s="37" t="s">
         <v>73</v>
       </c>
       <c r="T15" s="38"/>
       <c r="W15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AJ15" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK15" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="AF15" s="48" t="s">
+      <c r="AL15" s="48">
+        <v>21</v>
+      </c>
+      <c r="AM15" s="48">
+        <v>22</v>
+      </c>
+      <c r="AN15" s="38"/>
+      <c r="AP15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ15" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR15" s="27">
+        <v>21</v>
+      </c>
+      <c r="AS15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AG15" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH15" s="48">
-        <v>21</v>
-      </c>
-      <c r="AI15" s="48">
-        <v>22</v>
-      </c>
-      <c r="AJ15" s="38"/>
-      <c r="AL15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM15" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN15" s="27">
-        <v>11</v>
-      </c>
-      <c r="AO15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV15" s="59"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:39">
+      <c r="AZ15" s="59"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:43">
       <c r="A16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="23">
@@ -2481,38 +2517,44 @@
       <c r="X16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG16" s="52"/>
-      <c r="AM16" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41">
+      <c r="Y16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AK16" s="50"/>
+      <c r="AQ16" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17"/>
       <c r="B17" s="5"/>
       <c r="C17" s="28"/>
       <c r="W17" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AP17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AM17" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN17" s="27">
+      <c r="AQ17" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR17" s="27">
         <v>11</v>
       </c>
-      <c r="AO17" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AS17" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18"/>
       <c r="B18" s="5"/>
       <c r="C18" s="28"/>
@@ -2520,22 +2562,24 @@
         <v>36</v>
       </c>
       <c r="W18" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Y18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA18" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="2:48">
+      <c r="Y18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:52">
       <c r="B19" s="5"/>
       <c r="C19" s="28"/>
       <c r="D19" s="5"/>
@@ -2558,7 +2602,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
       <c r="W19" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -2567,26 +2611,30 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="9"/>
+      <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="12"/>
+      <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
+      <c r="AI19" s="9"/>
       <c r="AJ19" s="5"/>
-      <c r="AK19" s="9"/>
+      <c r="AK19" s="12"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="13"/>
+      <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
+      <c r="AO19" s="9"/>
       <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="9"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
-      <c r="AT19" s="14"/>
+      <c r="AT19" s="5"/>
       <c r="AU19" s="5"/>
       <c r="AV19" s="9"/>
-    </row>
-    <row r="20" customFormat="1" spans="2:48">
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="9"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:52">
       <c r="B20" s="5"/>
       <c r="C20" s="28"/>
       <c r="D20" s="5"/>
@@ -2609,7 +2657,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
       <c r="W20" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -2618,26 +2666,30 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="9"/>
+      <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="12"/>
+      <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
+      <c r="AI20" s="9"/>
       <c r="AJ20" s="5"/>
-      <c r="AK20" s="9"/>
+      <c r="AK20" s="12"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="13"/>
+      <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
+      <c r="AO20" s="9"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="9"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
-      <c r="AT20" s="14"/>
+      <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
       <c r="AV20" s="9"/>
-    </row>
-    <row r="21" customFormat="1" spans="2:48">
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="9"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:52">
       <c r="B21" s="5"/>
       <c r="C21" s="28"/>
       <c r="D21" s="5"/>
@@ -2662,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="W21" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X21" s="23" t="s">
         <v>14</v>
@@ -2675,26 +2727,30 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="9"/>
+      <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="12"/>
+      <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
+      <c r="AI21" s="9"/>
       <c r="AJ21" s="5"/>
-      <c r="AK21" s="9"/>
+      <c r="AK21" s="12"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="13"/>
+      <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
+      <c r="AO21" s="9"/>
       <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="9"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
-      <c r="AT21" s="14"/>
+      <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="9"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:48">
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="9"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:52">
       <c r="B22" s="5"/>
       <c r="C22" s="28"/>
       <c r="D22" s="5"/>
@@ -2717,7 +2773,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
       <c r="W22" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -2726,26 +2782,30 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="9"/>
+      <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="12"/>
+      <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
+      <c r="AI22" s="9"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="9"/>
+      <c r="AK22" s="12"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="13"/>
+      <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
+      <c r="AO22" s="9"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="9"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="14"/>
+      <c r="AT22" s="5"/>
       <c r="AU22" s="5"/>
       <c r="AV22" s="9"/>
-    </row>
-    <row r="23" customFormat="1" spans="2:48">
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="9"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:52">
       <c r="B23" s="5"/>
       <c r="C23" s="28"/>
       <c r="D23" s="5"/>
@@ -2768,7 +2828,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
       <c r="W23" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -2777,26 +2837,30 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="9"/>
+      <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
+      <c r="AI23" s="9"/>
       <c r="AJ23" s="5"/>
-      <c r="AK23" s="9"/>
+      <c r="AK23" s="12"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="13"/>
+      <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
+      <c r="AO23" s="9"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="9"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
-      <c r="AT23" s="14"/>
+      <c r="AT23" s="5"/>
       <c r="AU23" s="5"/>
       <c r="AV23" s="9"/>
-    </row>
-    <row r="24" customFormat="1" ht="14.25" spans="2:48">
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="9"/>
+    </row>
+    <row r="24" customFormat="1" ht="14.25" spans="2:52">
       <c r="B24" s="5"/>
       <c r="C24" s="28"/>
       <c r="D24" s="5"/>
@@ -2818,10 +2882,10 @@
       <c r="T24" s="5"/>
       <c r="U24" s="9"/>
       <c r="V24" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="W24" s="45" t="s">
         <v>78</v>
-      </c>
-      <c r="W24" s="45" t="s">
-        <v>79</v>
       </c>
       <c r="X24" s="44">
         <v>14</v>
@@ -2836,26 +2900,30 @@
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
       <c r="AD24" s="38"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="9"/>
       <c r="AJ24" s="5"/>
-      <c r="AK24" s="9"/>
+      <c r="AK24" s="12"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="13"/>
+      <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
+      <c r="AO24" s="9"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="9"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="14"/>
+      <c r="AT24" s="5"/>
       <c r="AU24" s="5"/>
       <c r="AV24" s="9"/>
-    </row>
-    <row r="25" customFormat="1" ht="14.25" spans="2:48">
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="9"/>
+    </row>
+    <row r="25" customFormat="1" ht="14.25" spans="2:52">
       <c r="B25" s="5"/>
       <c r="C25" s="28"/>
       <c r="D25" s="5"/>
@@ -2883,26 +2951,30 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="9"/>
+      <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="12"/>
+      <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
+      <c r="AI25" s="9"/>
       <c r="AJ25" s="5"/>
-      <c r="AK25" s="9"/>
+      <c r="AK25" s="12"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="13"/>
+      <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
+      <c r="AO25" s="9"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="9"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
-      <c r="AT25" s="14"/>
+      <c r="AT25" s="5"/>
       <c r="AU25" s="5"/>
       <c r="AV25" s="9"/>
-    </row>
-    <row r="26" customFormat="1" spans="2:48">
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="9"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:52">
       <c r="B26" s="5"/>
       <c r="C26" s="28"/>
       <c r="D26" s="5"/>
@@ -2930,26 +3002,30 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="9"/>
       <c r="AJ26" s="5"/>
-      <c r="AK26" s="9"/>
+      <c r="AK26" s="12"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="13"/>
+      <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
+      <c r="AO26" s="9"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="9"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
-      <c r="AT26" s="14"/>
+      <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
       <c r="AV26" s="9"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:48">
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="9"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:52">
       <c r="B27" s="5"/>
       <c r="C27" s="28"/>
       <c r="D27" s="5"/>
@@ -2977,26 +3053,30 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="9"/>
       <c r="AJ27" s="5"/>
-      <c r="AK27" s="9"/>
+      <c r="AK27" s="12"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="13"/>
+      <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
+      <c r="AO27" s="9"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="9"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="5"/>
       <c r="AS27" s="5"/>
-      <c r="AT27" s="14"/>
+      <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
       <c r="AV27" s="9"/>
-    </row>
-    <row r="28" customFormat="1" spans="2:48">
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="9"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:52">
       <c r="B28" s="5"/>
       <c r="C28" s="28"/>
       <c r="D28" s="5"/>
@@ -3024,26 +3104,30 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="9"/>
       <c r="AJ28" s="5"/>
-      <c r="AK28" s="9"/>
+      <c r="AK28" s="12"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="13"/>
+      <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
+      <c r="AO28" s="9"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="9"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="5"/>
       <c r="AS28" s="5"/>
-      <c r="AT28" s="14"/>
+      <c r="AT28" s="5"/>
       <c r="AU28" s="5"/>
       <c r="AV28" s="9"/>
-    </row>
-    <row r="29" customFormat="1" spans="2:48">
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="9"/>
+    </row>
+    <row r="29" customFormat="1" spans="2:52">
       <c r="B29" s="5"/>
       <c r="C29" s="28"/>
       <c r="D29" s="5"/>
@@ -3071,26 +3155,30 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="9"/>
       <c r="AJ29" s="5"/>
-      <c r="AK29" s="9"/>
+      <c r="AK29" s="12"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="13"/>
+      <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
+      <c r="AO29" s="9"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="9"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
-      <c r="AT29" s="14"/>
+      <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
       <c r="AV29" s="9"/>
-    </row>
-    <row r="30" customFormat="1" spans="2:48">
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="9"/>
+    </row>
+    <row r="30" customFormat="1" spans="2:52">
       <c r="B30" s="5"/>
       <c r="C30" s="28"/>
       <c r="D30" s="5"/>
@@ -3118,26 +3206,30 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="9"/>
       <c r="AJ30" s="5"/>
-      <c r="AK30" s="9"/>
+      <c r="AK30" s="12"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="13"/>
+      <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
+      <c r="AO30" s="9"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="9"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
-      <c r="AT30" s="14"/>
+      <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
       <c r="AV30" s="9"/>
-    </row>
-    <row r="31" customFormat="1" spans="2:48">
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="9"/>
+    </row>
+    <row r="31" customFormat="1" spans="2:52">
       <c r="B31" s="5"/>
       <c r="C31" s="28"/>
       <c r="D31" s="5"/>
@@ -3167,26 +3259,30 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="9"/>
       <c r="AJ31" s="5"/>
-      <c r="AK31" s="9"/>
+      <c r="AK31" s="12"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="13"/>
+      <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
+      <c r="AO31" s="9"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="9"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
-      <c r="AT31" s="14"/>
+      <c r="AT31" s="5"/>
       <c r="AU31" s="5"/>
       <c r="AV31" s="9"/>
-    </row>
-    <row r="32" customFormat="1" spans="2:48">
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="9"/>
+    </row>
+    <row r="32" customFormat="1" spans="2:52">
       <c r="B32" s="5"/>
       <c r="C32" s="28"/>
       <c r="K32" s="7"/>
@@ -3209,26 +3305,30 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="9"/>
       <c r="AJ32" s="5"/>
-      <c r="AK32" s="9"/>
+      <c r="AK32" s="12"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="13"/>
+      <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
+      <c r="AO32" s="9"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="9"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
-      <c r="AT32" s="14"/>
+      <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
       <c r="AV32" s="9"/>
-    </row>
-    <row r="33" customFormat="1" spans="2:48">
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="9"/>
+    </row>
+    <row r="33" customFormat="1" spans="2:52">
       <c r="B33" s="5"/>
       <c r="C33" s="28"/>
       <c r="D33" s="5"/>
@@ -3258,26 +3358,30 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="9"/>
       <c r="AJ33" s="5"/>
-      <c r="AK33" s="9"/>
+      <c r="AK33" s="12"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="13"/>
+      <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
+      <c r="AO33" s="9"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="9"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
-      <c r="AT33" s="14"/>
+      <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
       <c r="AV33" s="9"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:48">
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="9"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:52">
       <c r="B34" s="5"/>
       <c r="C34" s="28"/>
       <c r="D34" s="5"/>
@@ -3307,26 +3411,30 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="9"/>
       <c r="AJ34" s="5"/>
-      <c r="AK34" s="9"/>
+      <c r="AK34" s="12"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="13"/>
+      <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
+      <c r="AO34" s="9"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="9"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="14"/>
+      <c r="AT34" s="5"/>
       <c r="AU34" s="5"/>
       <c r="AV34" s="9"/>
-    </row>
-    <row r="35" customFormat="1" spans="2:48">
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="9"/>
+    </row>
+    <row r="35" customFormat="1" spans="2:52">
       <c r="B35" s="5"/>
       <c r="C35" s="28"/>
       <c r="D35" s="5"/>
@@ -3356,26 +3464,30 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="9"/>
       <c r="AJ35" s="5"/>
-      <c r="AK35" s="9"/>
+      <c r="AK35" s="12"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="13"/>
+      <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
+      <c r="AO35" s="9"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="9"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
-      <c r="AT35" s="14"/>
+      <c r="AT35" s="5"/>
       <c r="AU35" s="5"/>
       <c r="AV35" s="9"/>
-    </row>
-    <row r="36" customFormat="1" spans="2:48">
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="9"/>
+    </row>
+    <row r="36" customFormat="1" spans="2:52">
       <c r="B36" s="5"/>
       <c r="C36" s="28"/>
       <c r="D36" s="5"/>
@@ -3405,24 +3517,28 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="9"/>
       <c r="AJ36" s="5"/>
-      <c r="AK36" s="9"/>
+      <c r="AK36" s="12"/>
       <c r="AL36" s="5"/>
-      <c r="AM36" s="13"/>
+      <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
+      <c r="AO36" s="9"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="9"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
-      <c r="AT36" s="14"/>
+      <c r="AT36" s="5"/>
       <c r="AU36" s="5"/>
       <c r="AV36" s="9"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="9"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37"/>

--- a/Java/ClassStructure.xlsx
+++ b/Java/ClassStructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13260" windowHeight="12990"/>
+    <workbookView windowWidth="27195" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>CLASS</t>
   </si>
@@ -109,6 +109,9 @@
     <t>String path</t>
   </si>
   <si>
+    <t>（传入文件的绝对路径）</t>
+  </si>
+  <si>
     <t>构造器</t>
   </si>
   <si>
@@ -121,57 +124,69 @@
     <t>String pathPythonFile()</t>
   </si>
   <si>
-    <t>String batPath</t>
+    <t>Rename video</t>
+  </si>
+  <si>
+    <t>（传入的文件的绝对路径）</t>
+  </si>
+  <si>
+    <t>VideoFolder(String videoPath)</t>
+  </si>
+  <si>
+    <t>Getter/Setter</t>
+  </si>
+  <si>
+    <t>Ba-Bz</t>
+  </si>
+  <si>
+    <t>返回项目的JavaSrc文件夹的绝对路径</t>
+  </si>
+  <si>
+    <t>VideoFolder videoFolder</t>
+  </si>
+  <si>
+    <t>Rename(String p)</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>File getOriginFile()</t>
+  </si>
+  <si>
+    <t>普通方法</t>
+  </si>
+  <si>
+    <t>C-Z</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>String pathJavaSrcFile()</t>
+  </si>
+  <si>
+    <t>FFmpeg()</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Bd</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>（传入的文件的绝对路径）</t>
-  </si>
-  <si>
-    <t>（传入文件的绝对路径）</t>
-  </si>
-  <si>
-    <t>Getter/Setter</t>
-  </si>
-  <si>
-    <t>Ba-Bz</t>
-  </si>
-  <si>
-    <t>返回项目的JavaSrc文件夹的绝对路径</t>
-  </si>
-  <si>
-    <t>Rename video</t>
-  </si>
-  <si>
-    <t>Rename(String p)</t>
-  </si>
-  <si>
-    <t>VideoFolder(String videoPath)</t>
-  </si>
-  <si>
-    <t>普通方法</t>
-  </si>
-  <si>
-    <t>C-Z</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>String pathJavaSrcFile()</t>
-  </si>
-  <si>
-    <t>VideoFolder videoFolder</t>
-  </si>
-  <si>
-    <t>Ba</t>
-  </si>
-  <si>
     <t>String getOriginName()</t>
   </si>
   <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>String getFolderPath()</t>
+  </si>
+  <si>
     <t>静态方法</t>
   </si>
   <si>
@@ -181,22 +196,16 @@
     <t>返回项目的Bin文件夹的绝对路径</t>
   </si>
   <si>
-    <t>FFmpeg()</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Bd</t>
-  </si>
-  <si>
-    <t>Bb</t>
+    <t>int getWidthInt()</t>
   </si>
   <si>
     <t>String getNowName()</t>
   </si>
   <si>
-    <t>File getOriginFile()</t>
+    <t>Bc</t>
+  </si>
+  <si>
+    <t>String getVideoPath()</t>
   </si>
   <si>
     <t>MAIN</t>
@@ -208,28 +217,25 @@
     <t>String pathBinFolder()</t>
   </si>
   <si>
-    <t>int getWidthInt()</t>
-  </si>
-  <si>
-    <t>Bc</t>
+    <t>int getHeightInt()</t>
   </si>
   <si>
     <t>String getPath()</t>
   </si>
   <si>
-    <t>String getFolderPath()</t>
+    <t>生成与11同名的文件夹并用D复制文件</t>
   </si>
   <si>
     <t>返回用户桌面的绝对路径</t>
   </si>
   <si>
-    <t>int getHeightInt()</t>
+    <t>String getCodecName()</t>
   </si>
   <si>
     <t>String getNowFilePath()</t>
   </si>
   <si>
-    <t>String getVideoPath()</t>
+    <t>void setNewFileFolder()</t>
   </si>
   <si>
     <t>boolean batFFS()</t>
@@ -241,73 +247,55 @@
     <t>String pathDesktop()</t>
   </si>
   <si>
-    <t>String getCodecName()</t>
+    <t>编辑bin\ffs.bat文件并运行</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>boolean setPath(String s)</t>
+  </si>
+  <si>
+    <t>复制文件到C生成的文件夹</t>
+  </si>
+  <si>
+    <t>boolean batFFR()</t>
+  </si>
+  <si>
+    <t>弹出文件选择框</t>
+  </si>
+  <si>
+    <t>作用为调用ffmpeg生成视频文件信息</t>
   </si>
   <si>
     <t>修正文件不合法的部分（如有）</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>boolean runBat()</t>
-  </si>
-  <si>
-    <t>弹出文件选择框</t>
-  </si>
-  <si>
-    <t>创建bin\ffs.bat文件</t>
+    <t>void copyVideoFile()</t>
+  </si>
+  <si>
+    <t>返回所选MP4文件的绝对路径</t>
+  </si>
+  <si>
+    <t>把数据存入bin\v.log并读取入变量</t>
   </si>
   <si>
     <t>void setName()</t>
   </si>
   <si>
-    <t>void readLog()</t>
-  </si>
-  <si>
-    <t>返回所选MP4文件的绝对路径</t>
-  </si>
-  <si>
-    <t>用来调用ffmpeg生成视频文件信息</t>
+    <t>String pathChooseVideo()</t>
   </si>
   <si>
     <t>还原文件原名称</t>
   </si>
   <si>
-    <t>生成与11同名的文件夹并用D复制文件</t>
-  </si>
-  <si>
-    <t>boolean batFFR()</t>
-  </si>
-  <si>
-    <t>String pathChooseVideo()</t>
-  </si>
-  <si>
-    <t>得到的数据储存在bin\v.log</t>
+    <t>编辑bin\ffr.bat文件并运行</t>
   </si>
   <si>
     <t>void restoreName()</t>
   </si>
   <si>
-    <t>void setNewFileFolder()</t>
-  </si>
-  <si>
-    <t>复制文件到C生成的文件夹</t>
-  </si>
-  <si>
-    <t>void copyVideoFile()</t>
-  </si>
-  <si>
-    <t>读取bin\v.log</t>
-  </si>
-  <si>
-    <t>修改成员变量</t>
-  </si>
-  <si>
-    <t>运行C或D路径的bat文件</t>
-  </si>
-  <si>
-    <t>最近一次运行的C或D的路径</t>
+    <t>作用为将指定视频转换成图片</t>
   </si>
 </sst>
 </file>
@@ -317,8 +305,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -343,53 +331,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -411,22 +353,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,26 +404,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,14 +461,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +525,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,25 +663,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,145 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,26 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,17 +837,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,17 +860,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,9 +881,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,10 +912,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,133 +924,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,9 +1073,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1118,9 +1103,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,19 +1145,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,18 +1175,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,7 +1193,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,6 +1221,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1573,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1582,34 +1570,32 @@
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="4" customWidth="1"/>
-    <col min="4" max="7" width="2.625" style="5" customWidth="1"/>
-    <col min="8" max="10" width="2.625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="0.158333333333333" style="7" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="27.0833333333333" style="8" customWidth="1"/>
-    <col min="14" max="15" width="2.625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="0.158333333333333" style="9" customWidth="1"/>
-    <col min="17" max="17" width="2.625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="27.775" style="10" customWidth="1"/>
-    <col min="19" max="20" width="2.625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="0.158333333333333" style="9" customWidth="1"/>
-    <col min="22" max="22" width="2.625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="25.8333333333333" style="11" customWidth="1"/>
-    <col min="24" max="30" width="2.625" style="5" customWidth="1"/>
-    <col min="31" max="34" width="2.625" style="6" customWidth="1"/>
-    <col min="35" max="35" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="4" max="13" width="2.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="0.158333333333333" style="6" customWidth="1"/>
+    <col min="15" max="15" width="2.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="27.0833333333333" style="7" customWidth="1"/>
+    <col min="17" max="18" width="2.625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="0.158333333333333" style="8" customWidth="1"/>
+    <col min="20" max="20" width="2.625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="27.775" style="9" customWidth="1"/>
+    <col min="22" max="23" width="2.625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="0.158333333333333" style="8" customWidth="1"/>
+    <col min="25" max="25" width="2.625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="27.5" style="10" customWidth="1"/>
+    <col min="27" max="34" width="2.625" style="5" customWidth="1"/>
+    <col min="35" max="35" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="36" max="36" width="2.625" style="5" customWidth="1"/>
-    <col min="37" max="37" width="24.025" style="12" customWidth="1"/>
-    <col min="38" max="40" width="2.625" style="5" customWidth="1"/>
-    <col min="41" max="41" width="0.158333333333333" style="9" customWidth="1"/>
-    <col min="42" max="42" width="2.625" style="5" customWidth="1"/>
-    <col min="43" max="43" width="31.25" style="13" customWidth="1"/>
-    <col min="44" max="47" width="2.625" style="5" customWidth="1"/>
-    <col min="48" max="48" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="37" max="37" width="24.025" style="11" customWidth="1"/>
+    <col min="38" max="41" width="2.625" style="5" customWidth="1"/>
+    <col min="42" max="42" width="0.158333333333333" style="8" customWidth="1"/>
+    <col min="43" max="43" width="2.625" style="5" customWidth="1"/>
+    <col min="44" max="44" width="31.25" style="12" customWidth="1"/>
+    <col min="45" max="47" width="2.625" style="5" customWidth="1"/>
+    <col min="48" max="48" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="49" max="49" width="2.625" style="5" customWidth="1"/>
-    <col min="50" max="50" width="28.625" style="14" customWidth="1"/>
+    <col min="50" max="50" width="28.625" style="13" customWidth="1"/>
     <col min="51" max="51" width="2.625" style="5" customWidth="1"/>
-    <col min="52" max="52" width="0.158333333333333" style="9" customWidth="1"/>
+    <col min="52" max="52" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="53" max="54" width="9" style="2"/>
     <col min="57" max="16384" width="9" style="2"/>
   </cols>
@@ -1626,19 +1612,22 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="P1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="U1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="Z1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="50" t="s">
+      <c r="AK1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="55" t="s">
+      <c r="AR1" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AX1" s="57" t="s">
@@ -1646,115 +1635,119 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:52">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="14"/>
       <c r="AX2" s="58"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="32"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:45">
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="36"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:46">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="M3" s="33" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="P3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="U3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="23">
+      <c r="Y3" s="21">
         <v>11</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="Z3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="AA3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="AB3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="48">
+      <c r="AJ3" s="47">
         <v>11</v>
       </c>
-      <c r="AK3" s="52" t="s">
+      <c r="AK3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" s="48" t="s">
+      <c r="AL3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AP3" s="27">
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AQ3" s="25">
         <v>11</v>
       </c>
-      <c r="AQ3" s="55" t="s">
+      <c r="AR3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="27" t="s">
+      <c r="AS3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="27" t="s">
+      <c r="AT3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:44">
+    <row r="4" ht="15" spans="2:47">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1768,53 +1761,59 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="L4" s="34" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="P4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="Q4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="T4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="U4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="23">
+      <c r="Y4" s="21">
         <v>12</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="Z4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="AA4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="AB4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4" s="26">
+      <c r="AJ4" s="24">
         <v>21</v>
       </c>
-      <c r="AK4" s="50" t="s">
+      <c r="AK4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AL4" s="26" t="s">
+      <c r="AL4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="27">
+      <c r="AM4" s="5"/>
+      <c r="AQ4" s="48">
         <v>21</v>
       </c>
-      <c r="AQ4" s="55" t="s">
+      <c r="AR4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="27" t="s">
+      <c r="AS4" s="48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:40">
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+    </row>
+    <row r="5" ht="15" spans="2:44">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1828,203 +1827,212 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="M5" s="33" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="P5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="U5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="23">
+      <c r="Y5" s="43">
         <v>13</v>
       </c>
-      <c r="W5" s="41" t="s">
+      <c r="Z5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="AA5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="AB5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AJ5" s="48">
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AJ5" s="47">
         <v>22</v>
       </c>
-      <c r="AK5" s="52" t="s">
+      <c r="AK5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AL5" s="48" t="s">
+      <c r="AL5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AR5" s="30" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" customFormat="1" ht="15" spans="2:52">
       <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="39"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="21">
         <v>31</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="44">
-        <v>14</v>
-      </c>
-      <c r="W6" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="44" t="s">
+      <c r="Z6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="33" t="s">
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="30" t="s">
         <v>37</v>
       </c>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="33" t="s">
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="9"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="8"/>
       <c r="AW6" s="5"/>
-      <c r="AX6" s="14"/>
+      <c r="AX6" s="13"/>
       <c r="AY6" s="5"/>
-      <c r="AZ6" s="9"/>
+      <c r="AZ6" s="8"/>
     </row>
     <row r="7" customFormat="1" ht="15" spans="2:52">
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="23">
-        <v>31</v>
-      </c>
-      <c r="W7" s="46" t="s">
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="43">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="AA7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="48" t="s">
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AK7" s="52" t="s">
+      <c r="AK7" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ7" s="55" t="s">
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
+      <c r="AR7" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS7" s="25">
+        <v>21</v>
+      </c>
       <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
-      <c r="AV7" s="9"/>
+      <c r="AV7" s="8"/>
       <c r="AW7" s="5"/>
-      <c r="AX7" s="14"/>
+      <c r="AX7" s="13"/>
       <c r="AY7" s="5"/>
-      <c r="AZ7" s="9"/>
-    </row>
-    <row r="8" ht="15" spans="2:37">
+      <c r="AZ7" s="8"/>
+    </row>
+    <row r="8" ht="15" spans="2:45">
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2032,48 +2040,69 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="Q8" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="40" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="T8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="U8" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="V8" s="44">
-        <v>32</v>
-      </c>
-      <c r="W8" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" s="44" t="s">
+      <c r="Y8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AJ8" s="26" t="s">
+      <c r="Z8" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AK8" s="50" t="s">
+      <c r="AA8" s="38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="2:44">
+      <c r="AB8" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG8" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH8" s="39"/>
+      <c r="AJ8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK8" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR8" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS8" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="2:47">
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2081,533 +2110,481 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="R9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="44" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="U9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z9" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="21">
         <v>11</v>
       </c>
-      <c r="W9" s="45" t="s">
+      <c r="AB9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AJ9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="X9" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="48" t="s">
+      <c r="AK9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL9" s="24">
         <v>11</v>
       </c>
-      <c r="Z9" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA9" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB9" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC9" s="49" t="s">
+      <c r="AM9" s="5"/>
+      <c r="AQ9" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR9" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS9" s="48">
         <v>11</v>
       </c>
-      <c r="AD9" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AJ9" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK9" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL9" s="26">
-        <v>11</v>
-      </c>
-      <c r="AP9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ9" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR9" s="27">
+      <c r="AT9" s="48">
         <v>21</v>
       </c>
+      <c r="AU9" s="39"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:52">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" s="25" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10" s="23">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="23" t="s">
+      <c r="W10" s="5"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" s="21">
         <v>12</v>
       </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="AB10" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK10" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL10" s="26">
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL10" s="24">
         <v>22</v>
       </c>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ10" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR10" s="27">
-        <v>11</v>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
       <c r="AU10" s="5"/>
-      <c r="AV10" s="9"/>
+      <c r="AV10" s="8"/>
       <c r="AW10" s="5"/>
-      <c r="AX10" s="14"/>
+      <c r="AX10" s="13"/>
       <c r="AY10" s="5"/>
-      <c r="AZ10" s="9"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:45">
-      <c r="A11" s="23" t="s">
+      <c r="AZ10" s="8"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:46">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="J11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="U11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA11" s="43">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AJ11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK11" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL11" s="24">
+        <v>11</v>
+      </c>
+      <c r="AM11" s="24">
+        <v>22</v>
+      </c>
+      <c r="AQ11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR11" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS11" s="25">
+        <v>21</v>
+      </c>
+      <c r="AT11" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" spans="1:52">
+      <c r="A12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="V11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="W11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="X11" s="23">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AJ11" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK11" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL11" s="48">
-        <v>11</v>
-      </c>
-      <c r="AM11" s="48">
+      <c r="E12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL12" s="47">
         <v>22</v>
       </c>
-      <c r="AN11" s="38"/>
-      <c r="AP11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ11" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR11" s="27">
-        <v>11</v>
-      </c>
-      <c r="AS11" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="15" spans="1:52">
-      <c r="A12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="W12" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" s="44">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="5"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="30" t="s">
+        <v>80</v>
+      </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
-      <c r="AV12" s="9"/>
+      <c r="AV12" s="8"/>
       <c r="AW12" s="5"/>
-      <c r="AX12" s="14"/>
+      <c r="AX12" s="13"/>
       <c r="AY12" s="5"/>
-      <c r="AZ12" s="9"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:38">
-      <c r="A13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23">
+      <c r="AZ12" s="8"/>
+    </row>
+    <row r="13" ht="15" spans="1:47">
+      <c r="A13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z13" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK13" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" s="5"/>
+      <c r="AQ13" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR13" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS13" s="48">
+        <v>11</v>
+      </c>
+      <c r="AT13" s="48">
+        <v>21</v>
+      </c>
+      <c r="AU13" s="39"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:39">
+      <c r="A14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="U14" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="AK14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL14" s="24">
+        <v>11</v>
+      </c>
+      <c r="AM14" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:52">
+      <c r="A15"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="T15" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" s="39"/>
+      <c r="Y15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="W13" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AJ13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK13" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL13" s="26">
+      <c r="Z15" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ15" s="59"/>
+    </row>
+    <row r="16" ht="15" spans="1:41">
+      <c r="A16"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="Z16" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ16" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK16" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL16" s="47">
+        <v>11</v>
+      </c>
+      <c r="AM16" s="47">
+        <v>21</v>
+      </c>
+      <c r="AN16" s="47">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:43">
-      <c r="A14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="W14" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AK14" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ14" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:52">
-      <c r="A15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="38"/>
-      <c r="W15" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AJ15" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK15" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="48">
-        <v>21</v>
-      </c>
-      <c r="AM15" s="48">
-        <v>22</v>
-      </c>
-      <c r="AN15" s="38"/>
-      <c r="AP15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ15" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR15" s="27">
-        <v>21</v>
-      </c>
-      <c r="AS15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ15" s="59"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:43">
-      <c r="A16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23">
-        <v>14</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AK16" s="50"/>
-      <c r="AQ16" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
+      <c r="AO16" s="39"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:26">
       <c r="A17"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="28"/>
-      <c r="W17" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AP17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ17" s="55" t="s">
+      <c r="C17" s="26"/>
+      <c r="Z17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AR17" s="27">
-        <v>11</v>
-      </c>
-      <c r="AS17" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+    </row>
+    <row r="18" ht="14.25" spans="1:34">
       <c r="A18"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="28"/>
-      <c r="V18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W18" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="X18" s="25" t="s">
+      <c r="C18" s="26"/>
+      <c r="Y18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z18" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA18" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="Y18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-    </row>
-    <row r="19" customFormat="1" spans="2:52">
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" spans="2:52">
       <c r="B19" s="5"/>
-      <c r="C19" s="28"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="9"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="5"/>
       <c r="U19" s="9"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="8"/>
+      <c r="Y19"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2615,115 +2592,96 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="9"/>
+      <c r="AI19" s="8"/>
       <c r="AJ19" s="5"/>
-      <c r="AK19" s="12"/>
+      <c r="AK19" s="11"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="12"/>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
       <c r="AU19" s="5"/>
-      <c r="AV19" s="9"/>
+      <c r="AV19" s="8"/>
       <c r="AW19" s="5"/>
-      <c r="AX19" s="14"/>
+      <c r="AX19" s="13"/>
       <c r="AY19" s="5"/>
-      <c r="AZ19" s="9"/>
+      <c r="AZ19" s="8"/>
     </row>
     <row r="20" customFormat="1" spans="2:52">
       <c r="B20" s="5"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="9"/>
+      <c r="P20" s="7"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="5"/>
       <c r="U20" s="9"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="9"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="8"/>
+      <c r="Z20" s="10"/>
+      <c r="AI20" s="8"/>
       <c r="AJ20" s="5"/>
-      <c r="AK20" s="12"/>
+      <c r="AK20" s="11"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="12"/>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
-      <c r="AV20" s="9"/>
+      <c r="AV20" s="8"/>
       <c r="AW20" s="5"/>
-      <c r="AX20" s="14"/>
+      <c r="AX20" s="13"/>
       <c r="AY20" s="5"/>
-      <c r="AZ20" s="9"/>
+      <c r="AZ20" s="8"/>
     </row>
     <row r="21" customFormat="1" spans="2:52">
       <c r="B21" s="5"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="9"/>
+      <c r="P21" s="7"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="5"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="X21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="8"/>
+      <c r="Y21"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
@@ -2731,54 +2689,52 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="9"/>
+      <c r="AI21" s="8"/>
       <c r="AJ21" s="5"/>
-      <c r="AK21" s="12"/>
+      <c r="AK21" s="11"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="12"/>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="9"/>
+      <c r="AV21" s="8"/>
       <c r="AW21" s="5"/>
-      <c r="AX21" s="14"/>
+      <c r="AX21" s="13"/>
       <c r="AY21" s="5"/>
-      <c r="AZ21" s="9"/>
+      <c r="AZ21" s="8"/>
     </row>
     <row r="22" customFormat="1" spans="2:52">
       <c r="B22" s="5"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="9"/>
+      <c r="P22" s="7"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="5"/>
       <c r="U22" s="9"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="8"/>
+      <c r="Y22"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -2786,53 +2742,51 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="9"/>
+      <c r="AI22" s="8"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="12"/>
+      <c r="AK22" s="11"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="12"/>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
       <c r="AU22" s="5"/>
-      <c r="AV22" s="9"/>
+      <c r="AV22" s="8"/>
       <c r="AW22" s="5"/>
-      <c r="AX22" s="14"/>
+      <c r="AX22" s="13"/>
       <c r="AY22" s="5"/>
-      <c r="AZ22" s="9"/>
+      <c r="AZ22" s="8"/>
     </row>
     <row r="23" customFormat="1" spans="2:52">
       <c r="B23" s="5"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="9"/>
+      <c r="P23" s="7"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="8"/>
       <c r="T23" s="5"/>
       <c r="U23" s="9"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="X23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="8"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="Z23" s="10"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -2841,113 +2795,103 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="9"/>
+      <c r="AI23" s="8"/>
       <c r="AJ23" s="5"/>
-      <c r="AK23" s="12"/>
+      <c r="AK23" s="11"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="12"/>
       <c r="AS23" s="5"/>
       <c r="AT23" s="5"/>
       <c r="AU23" s="5"/>
-      <c r="AV23" s="9"/>
+      <c r="AV23" s="8"/>
       <c r="AW23" s="5"/>
-      <c r="AX23" s="14"/>
+      <c r="AX23" s="13"/>
       <c r="AY23" s="5"/>
-      <c r="AZ23" s="9"/>
-    </row>
-    <row r="24" customFormat="1" ht="14.25" spans="2:52">
+      <c r="AZ23" s="8"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:52">
       <c r="B24" s="5"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="9"/>
+      <c r="P24" s="7"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="8"/>
       <c r="T24" s="5"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="W24" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="X24" s="44">
-        <v>14</v>
-      </c>
-      <c r="Y24" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="9"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="8"/>
       <c r="AJ24" s="5"/>
-      <c r="AK24" s="12"/>
+      <c r="AK24" s="11"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="12"/>
       <c r="AS24" s="5"/>
       <c r="AT24" s="5"/>
       <c r="AU24" s="5"/>
-      <c r="AV24" s="9"/>
+      <c r="AV24" s="8"/>
       <c r="AW24" s="5"/>
-      <c r="AX24" s="14"/>
+      <c r="AX24" s="13"/>
       <c r="AY24" s="5"/>
-      <c r="AZ24" s="9"/>
-    </row>
-    <row r="25" customFormat="1" ht="14.25" spans="2:52">
+      <c r="AZ24" s="8"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:52">
       <c r="B25" s="5"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="9"/>
+      <c r="P25" s="7"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="5"/>
       <c r="U25" s="9"/>
-      <c r="W25" s="41"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="8"/>
+      <c r="Z25" s="10"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -2955,880 +2899,881 @@
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="9"/>
+      <c r="AI25" s="8"/>
       <c r="AJ25" s="5"/>
-      <c r="AK25" s="12"/>
+      <c r="AK25" s="11"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="12"/>
       <c r="AS25" s="5"/>
       <c r="AT25" s="5"/>
       <c r="AU25" s="5"/>
-      <c r="AV25" s="9"/>
+      <c r="AV25" s="8"/>
       <c r="AW25" s="5"/>
-      <c r="AX25" s="14"/>
+      <c r="AX25" s="13"/>
       <c r="AY25" s="5"/>
-      <c r="AZ25" s="9"/>
+      <c r="AZ25" s="8"/>
     </row>
     <row r="26" customFormat="1" spans="2:52">
       <c r="B26" s="5"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="9"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="8"/>
       <c r="T26" s="5"/>
       <c r="U26" s="9"/>
-      <c r="W26" s="41"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="8"/>
+      <c r="Z26" s="10"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="9"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="8"/>
       <c r="AJ26" s="5"/>
-      <c r="AK26" s="12"/>
+      <c r="AK26" s="11"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="12"/>
       <c r="AS26" s="5"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="9"/>
+      <c r="AV26" s="8"/>
       <c r="AW26" s="5"/>
-      <c r="AX26" s="14"/>
+      <c r="AX26" s="13"/>
       <c r="AY26" s="5"/>
-      <c r="AZ26" s="9"/>
+      <c r="AZ26" s="8"/>
     </row>
     <row r="27" customFormat="1" spans="2:52">
       <c r="B27" s="5"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="9"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="8"/>
       <c r="T27" s="5"/>
       <c r="U27" s="9"/>
-      <c r="W27" s="41"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="8"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="Z27" s="10"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="9"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="8"/>
       <c r="AJ27" s="5"/>
-      <c r="AK27" s="12"/>
+      <c r="AK27" s="11"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="12"/>
       <c r="AS27" s="5"/>
       <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
-      <c r="AV27" s="9"/>
+      <c r="AV27" s="8"/>
       <c r="AW27" s="5"/>
-      <c r="AX27" s="14"/>
+      <c r="AX27" s="13"/>
       <c r="AY27" s="5"/>
-      <c r="AZ27" s="9"/>
+      <c r="AZ27" s="8"/>
     </row>
     <row r="28" customFormat="1" spans="2:52">
       <c r="B28" s="5"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="9"/>
+      <c r="P28" s="7"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="5"/>
       <c r="U28" s="9"/>
-      <c r="W28" s="11"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="8"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="Z28" s="10"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="9"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="8"/>
       <c r="AJ28" s="5"/>
-      <c r="AK28" s="12"/>
+      <c r="AK28" s="11"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
-      <c r="AO28" s="9"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="12"/>
       <c r="AS28" s="5"/>
       <c r="AT28" s="5"/>
       <c r="AU28" s="5"/>
-      <c r="AV28" s="9"/>
+      <c r="AV28" s="8"/>
       <c r="AW28" s="5"/>
-      <c r="AX28" s="14"/>
+      <c r="AX28" s="13"/>
       <c r="AY28" s="5"/>
-      <c r="AZ28" s="9"/>
+      <c r="AZ28" s="8"/>
     </row>
     <row r="29" customFormat="1" spans="2:52">
       <c r="B29" s="5"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="9"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="5"/>
       <c r="U29" s="9"/>
-      <c r="W29" s="11"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="8"/>
+      <c r="Z29" s="10"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="9"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="8"/>
       <c r="AJ29" s="5"/>
-      <c r="AK29" s="12"/>
+      <c r="AK29" s="11"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="12"/>
       <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
-      <c r="AV29" s="9"/>
+      <c r="AV29" s="8"/>
       <c r="AW29" s="5"/>
-      <c r="AX29" s="14"/>
+      <c r="AX29" s="13"/>
       <c r="AY29" s="5"/>
-      <c r="AZ29" s="9"/>
+      <c r="AZ29" s="8"/>
     </row>
     <row r="30" customFormat="1" spans="2:52">
       <c r="B30" s="5"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="9"/>
+      <c r="P30" s="7"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="5"/>
       <c r="U30" s="9"/>
-      <c r="W30" s="11"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="8"/>
+      <c r="Z30" s="10"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="9"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="8"/>
       <c r="AJ30" s="5"/>
-      <c r="AK30" s="12"/>
+      <c r="AK30" s="11"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="12"/>
       <c r="AS30" s="5"/>
       <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
-      <c r="AV30" s="9"/>
+      <c r="AV30" s="8"/>
       <c r="AW30" s="5"/>
-      <c r="AX30" s="14"/>
+      <c r="AX30" s="13"/>
       <c r="AY30" s="5"/>
-      <c r="AZ30" s="9"/>
+      <c r="AZ30" s="8"/>
     </row>
     <row r="31" customFormat="1" spans="2:52">
       <c r="B31" s="5"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="9"/>
+      <c r="P31" s="7"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="5"/>
       <c r="U31" s="9"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="8"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+      <c r="Z31" s="10"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="9"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="8"/>
       <c r="AJ31" s="5"/>
-      <c r="AK31" s="12"/>
+      <c r="AK31" s="11"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="12"/>
       <c r="AS31" s="5"/>
       <c r="AT31" s="5"/>
       <c r="AU31" s="5"/>
-      <c r="AV31" s="9"/>
+      <c r="AV31" s="8"/>
       <c r="AW31" s="5"/>
-      <c r="AX31" s="14"/>
+      <c r="AX31" s="13"/>
       <c r="AY31" s="5"/>
-      <c r="AZ31" s="9"/>
+      <c r="AZ31" s="8"/>
     </row>
     <row r="32" customFormat="1" spans="2:52">
       <c r="B32" s="5"/>
-      <c r="C32" s="28"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="5"/>
+      <c r="C32" s="26"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="9"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="5"/>
       <c r="U32" s="9"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="8"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="Z32" s="10"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="9"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="8"/>
       <c r="AJ32" s="5"/>
-      <c r="AK32" s="12"/>
+      <c r="AK32" s="11"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="12"/>
       <c r="AS32" s="5"/>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
-      <c r="AV32" s="9"/>
+      <c r="AV32" s="8"/>
       <c r="AW32" s="5"/>
-      <c r="AX32" s="14"/>
+      <c r="AX32" s="13"/>
       <c r="AY32" s="5"/>
-      <c r="AZ32" s="9"/>
+      <c r="AZ32" s="8"/>
     </row>
     <row r="33" customFormat="1" spans="2:52">
       <c r="B33" s="5"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="9"/>
+      <c r="P33" s="7"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="8"/>
       <c r="T33" s="5"/>
       <c r="U33" s="9"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="8"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="Z33" s="10"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="9"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="8"/>
       <c r="AJ33" s="5"/>
-      <c r="AK33" s="12"/>
+      <c r="AK33" s="11"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="13"/>
-      <c r="AR33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="12"/>
       <c r="AS33" s="5"/>
       <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
-      <c r="AV33" s="9"/>
+      <c r="AV33" s="8"/>
       <c r="AW33" s="5"/>
-      <c r="AX33" s="14"/>
+      <c r="AX33" s="13"/>
       <c r="AY33" s="5"/>
-      <c r="AZ33" s="9"/>
+      <c r="AZ33" s="8"/>
     </row>
     <row r="34" customFormat="1" spans="2:52">
       <c r="B34" s="5"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="9"/>
+      <c r="P34" s="7"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="5"/>
       <c r="U34" s="9"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="8"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="Z34" s="10"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="9"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="8"/>
       <c r="AJ34" s="5"/>
-      <c r="AK34" s="12"/>
+      <c r="AK34" s="11"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="12"/>
       <c r="AS34" s="5"/>
       <c r="AT34" s="5"/>
       <c r="AU34" s="5"/>
-      <c r="AV34" s="9"/>
+      <c r="AV34" s="8"/>
       <c r="AW34" s="5"/>
-      <c r="AX34" s="14"/>
+      <c r="AX34" s="13"/>
       <c r="AY34" s="5"/>
-      <c r="AZ34" s="9"/>
+      <c r="AZ34" s="8"/>
     </row>
     <row r="35" customFormat="1" spans="2:52">
       <c r="B35" s="5"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="9"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
       <c r="T35" s="5"/>
       <c r="U35" s="9"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="8"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="Z35" s="10"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="9"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="8"/>
       <c r="AJ35" s="5"/>
-      <c r="AK35" s="12"/>
+      <c r="AK35" s="11"/>
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="12"/>
       <c r="AS35" s="5"/>
       <c r="AT35" s="5"/>
       <c r="AU35" s="5"/>
-      <c r="AV35" s="9"/>
+      <c r="AV35" s="8"/>
       <c r="AW35" s="5"/>
-      <c r="AX35" s="14"/>
+      <c r="AX35" s="13"/>
       <c r="AY35" s="5"/>
-      <c r="AZ35" s="9"/>
+      <c r="AZ35" s="8"/>
     </row>
     <row r="36" customFormat="1" spans="2:52">
       <c r="B36" s="5"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="9"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="5"/>
       <c r="U36" s="9"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="8"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="Z36" s="10"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="9"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="8"/>
       <c r="AJ36" s="5"/>
-      <c r="AK36" s="12"/>
+      <c r="AK36" s="11"/>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
-      <c r="AO36" s="9"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="12"/>
       <c r="AS36" s="5"/>
       <c r="AT36" s="5"/>
       <c r="AU36" s="5"/>
-      <c r="AV36" s="9"/>
+      <c r="AV36" s="8"/>
       <c r="AW36" s="5"/>
-      <c r="AX36" s="14"/>
+      <c r="AX36" s="13"/>
       <c r="AY36" s="5"/>
-      <c r="AZ36" s="9"/>
+      <c r="AZ36" s="8"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="28"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="28"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="28"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="28"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="28"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="28"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="28"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="28"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="28"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="28"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="28"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="28"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="28"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="28"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="28"/>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="28"/>
+      <c r="C55" s="26"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="28"/>
+      <c r="C56" s="26"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="28"/>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="28"/>
+      <c r="C58" s="26"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="28"/>
+      <c r="C59" s="26"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="28"/>
+      <c r="C60" s="26"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="28"/>
+      <c r="C61" s="26"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="28"/>
+      <c r="C62" s="26"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="28"/>
+      <c r="C63" s="26"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="28"/>
+      <c r="C64" s="26"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="28"/>
+      <c r="C65" s="26"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="28"/>
+      <c r="C66" s="26"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="28"/>
+      <c r="C67" s="26"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="28"/>
+      <c r="C68" s="26"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="28"/>
+      <c r="C69" s="26"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="28"/>
+      <c r="C70" s="26"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="28"/>
+      <c r="C71" s="26"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="28"/>
+      <c r="C72" s="26"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="28"/>
+      <c r="C73" s="26"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="28"/>
+      <c r="C74" s="26"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="28"/>
+      <c r="C75" s="26"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="28"/>
+      <c r="C76" s="26"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="28"/>
+      <c r="C77" s="26"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="28"/>
+      <c r="C78" s="26"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="28"/>
+      <c r="C79" s="26"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="28"/>
+      <c r="C80" s="26"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="28"/>
+      <c r="C81" s="26"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="28"/>
+      <c r="C82" s="26"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="28"/>
+      <c r="C83" s="26"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="28"/>
+      <c r="C84" s="26"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="28"/>
+      <c r="C85" s="26"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="28"/>
+      <c r="C86" s="26"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="28"/>
+      <c r="C87" s="26"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="28"/>
+      <c r="C88" s="26"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="28"/>
+      <c r="C89" s="26"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="28"/>
+      <c r="C90" s="26"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="28"/>
+      <c r="C91" s="26"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="28"/>
+      <c r="C92" s="26"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="28"/>
+      <c r="C93" s="26"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="28"/>
+      <c r="C94" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="100">

--- a/Java/ClassStructure.xlsx
+++ b/Java/ClassStructure.xlsx
@@ -235,7 +235,7 @@
     <t>String getNowFilePath()</t>
   </si>
   <si>
-    <t>void setNewFileFolder()</t>
+    <t>void newFileFolder()</t>
   </si>
   <si>
     <t>boolean batFFS()</t>
@@ -280,7 +280,7 @@
     <t>把数据存入bin\v.log并读取入变量</t>
   </si>
   <si>
-    <t>void setName()</t>
+    <t>void newName()</t>
   </si>
   <si>
     <t>String pathChooseVideo()</t>
@@ -1561,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AR21" sqref="AR21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1687,7 +1687,7 @@
       <c r="AY2" s="14"/>
       <c r="AZ2" s="36"/>
     </row>
-    <row r="3" ht="14.25" spans="2:46">
+    <row r="3" ht="14.25" spans="2:47">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1734,18 +1734,19 @@
       <c r="AM3" s="39"/>
       <c r="AN3" s="39"/>
       <c r="AO3" s="39"/>
-      <c r="AQ3" s="25">
+      <c r="AQ3" s="48">
         <v>11</v>
       </c>
-      <c r="AR3" s="54" t="s">
+      <c r="AR3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="25" t="s">
+      <c r="AS3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="25" t="s">
+      <c r="AT3" s="48" t="s">
         <v>14</v>
       </c>
+      <c r="AU3" s="39"/>
     </row>
     <row r="4" ht="15" spans="2:47">
       <c r="B4" s="3" t="s">

--- a/Java/ClassStructure.xlsx
+++ b/Java/ClassStructure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
   <si>
     <t>CLASS</t>
   </si>
@@ -283,7 +283,7 @@
     <t>void newName()</t>
   </si>
   <si>
-    <t>String pathChooseVideo()</t>
+    <t>String pathChooseMP4()</t>
   </si>
   <si>
     <t>还原文件原名称</t>
@@ -295,7 +295,16 @@
     <t>void restoreName()</t>
   </si>
   <si>
+    <t>返回所选PNG文件的绝对路径</t>
+  </si>
+  <si>
     <t>作用为将指定视频转换成图片</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>String pathChoosePNG()</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,6 +1182,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,8 +1573,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1621,16 +1633,16 @@
       <c r="U1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="49" t="s">
+      <c r="AK1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="54" t="s">
+      <c r="AR1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="57" t="s">
+      <c r="AX1" s="58" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1659,7 +1671,7 @@
       <c r="W2" s="14"/>
       <c r="X2" s="36"/>
       <c r="Y2" s="14"/>
-      <c r="Z2" s="42"/>
+      <c r="Z2" s="43"/>
       <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
@@ -1670,20 +1682,20 @@
       <c r="AH2" s="14"/>
       <c r="AI2" s="36"/>
       <c r="AJ2" s="14"/>
-      <c r="AK2" s="50"/>
+      <c r="AK2" s="51"/>
       <c r="AL2" s="14"/>
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
       <c r="AP2" s="36"/>
       <c r="AQ2" s="14"/>
-      <c r="AR2" s="55"/>
+      <c r="AR2" s="56"/>
       <c r="AS2" s="14"/>
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
       <c r="AV2" s="8"/>
       <c r="AW2" s="14"/>
-      <c r="AX2" s="58"/>
+      <c r="AX2" s="59"/>
       <c r="AY2" s="14"/>
       <c r="AZ2" s="36"/>
     </row>
@@ -1713,7 +1725,7 @@
       <c r="Y3" s="21">
         <v>11</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="AA3" s="21" t="s">
@@ -1722,28 +1734,28 @@
       <c r="AB3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="47">
+      <c r="AJ3" s="48">
         <v>11</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AK3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" s="47" t="s">
+      <c r="AL3" s="48" t="s">
         <v>14</v>
       </c>
       <c r="AM3" s="39"/>
       <c r="AN3" s="39"/>
       <c r="AO3" s="39"/>
-      <c r="AQ3" s="48">
+      <c r="AQ3" s="49">
         <v>11</v>
       </c>
-      <c r="AR3" s="56" t="s">
+      <c r="AR3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="48" t="s">
+      <c r="AS3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="48" t="s">
+      <c r="AT3" s="49" t="s">
         <v>14</v>
       </c>
       <c r="AU3" s="39"/>
@@ -1783,7 +1795,7 @@
       <c r="Y4" s="21">
         <v>12</v>
       </c>
-      <c r="Z4" s="41" t="s">
+      <c r="Z4" s="42" t="s">
         <v>22</v>
       </c>
       <c r="AA4" s="21" t="s">
@@ -1795,20 +1807,20 @@
       <c r="AJ4" s="24">
         <v>21</v>
       </c>
-      <c r="AK4" s="49" t="s">
+      <c r="AK4" s="50" t="s">
         <v>23</v>
       </c>
       <c r="AL4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="AM4" s="5"/>
-      <c r="AQ4" s="48">
+      <c r="AQ4" s="49">
         <v>21</v>
       </c>
-      <c r="AR4" s="56" t="s">
+      <c r="AR4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AS4" s="49" t="s">
         <v>11</v>
       </c>
       <c r="AT4" s="39"/>
@@ -1837,16 +1849,16 @@
       <c r="U5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="43">
+      <c r="Y5" s="44">
         <v>13</v>
       </c>
-      <c r="Z5" s="44" t="s">
+      <c r="Z5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="43" t="s">
+      <c r="AA5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AB5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="AC5" s="39"/>
@@ -1855,13 +1867,13 @@
       <c r="AF5" s="39"/>
       <c r="AG5" s="39"/>
       <c r="AH5" s="39"/>
-      <c r="AJ5" s="47">
+      <c r="AJ5" s="48">
         <v>22</v>
       </c>
-      <c r="AK5" s="51" t="s">
+      <c r="AK5" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AL5" s="47" t="s">
+      <c r="AL5" s="48" t="s">
         <v>11</v>
       </c>
       <c r="AM5" s="39"/>
@@ -1914,7 +1926,7 @@
       <c r="Y6" s="21">
         <v>31</v>
       </c>
-      <c r="Z6" s="45" t="s">
+      <c r="Z6" s="46" t="s">
         <v>36</v>
       </c>
       <c r="AA6" s="21" t="s">
@@ -1928,7 +1940,7 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="52"/>
+      <c r="AJ6" s="53"/>
       <c r="AK6" s="30" t="s">
         <v>37</v>
       </c>
@@ -1937,10 +1949,10 @@
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="48" t="s">
+      <c r="AQ6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AR6" s="56" t="s">
+      <c r="AR6" s="57" t="s">
         <v>38</v>
       </c>
       <c r="AS6" s="39"/>
@@ -1982,13 +1994,13 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="43">
+      <c r="Y7" s="44">
         <v>32</v>
       </c>
-      <c r="Z7" s="46" t="s">
+      <c r="Z7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AA7" s="43" t="s">
+      <c r="AA7" s="44" t="s">
         <v>11</v>
       </c>
       <c r="AB7" s="39"/>
@@ -1999,10 +2011,10 @@
       <c r="AG7" s="39"/>
       <c r="AH7" s="39"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="47" t="s">
+      <c r="AJ7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AK7" s="51" t="s">
+      <c r="AK7" s="52" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="39"/>
@@ -2013,7 +2025,7 @@
       <c r="AQ7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AR7" s="54" t="s">
+      <c r="AR7" s="55" t="s">
         <v>45</v>
       </c>
       <c r="AS7" s="25">
@@ -2053,44 +2065,44 @@
       <c r="V8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="43" t="s">
+      <c r="Y8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="46" t="s">
+      <c r="Z8" s="47" t="s">
         <v>50</v>
       </c>
       <c r="AA8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" s="47" t="s">
+      <c r="AB8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AC8" s="47" t="s">
+      <c r="AC8" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AD8" s="47" t="s">
+      <c r="AD8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AE8" s="47" t="s">
+      <c r="AE8" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AF8" s="48" t="s">
+      <c r="AF8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG8" s="48" t="s">
+      <c r="AG8" s="49" t="s">
         <v>14</v>
       </c>
       <c r="AH8" s="39"/>
       <c r="AJ8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AK8" s="49" t="s">
+      <c r="AK8" s="50" t="s">
         <v>54</v>
       </c>
       <c r="AQ8" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AR8" s="54" t="s">
+      <c r="AR8" s="55" t="s">
         <v>56</v>
       </c>
       <c r="AS8" s="25">
@@ -2120,7 +2132,7 @@
       <c r="Y9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="41" t="s">
+      <c r="Z9" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AA9" s="21">
@@ -2138,23 +2150,23 @@
       <c r="AJ9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AK9" s="49" t="s">
+      <c r="AK9" s="50" t="s">
         <v>61</v>
       </c>
       <c r="AL9" s="24">
         <v>11</v>
       </c>
       <c r="AM9" s="5"/>
-      <c r="AQ9" s="48" t="s">
+      <c r="AQ9" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AR9" s="56" t="s">
+      <c r="AR9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="AS9" s="48">
+      <c r="AS9" s="49">
         <v>11</v>
       </c>
-      <c r="AT9" s="48">
+      <c r="AT9" s="49">
         <v>21</v>
       </c>
       <c r="AU9" s="39"/>
@@ -2195,7 +2207,7 @@
       <c r="Y10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" s="41" t="s">
+      <c r="Z10" s="42" t="s">
         <v>67</v>
       </c>
       <c r="AA10" s="21">
@@ -2210,11 +2222,11 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="53"/>
+      <c r="AI10" s="54"/>
       <c r="AJ10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AK10" s="49" t="s">
+      <c r="AK10" s="50" t="s">
         <v>68</v>
       </c>
       <c r="AL10" s="24">
@@ -2271,16 +2283,16 @@
       <c r="U11" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="Y11" s="43" t="s">
+      <c r="Y11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="Z11" s="46" t="s">
+      <c r="Z11" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AA11" s="43">
+      <c r="AA11" s="44">
         <v>13</v>
       </c>
-      <c r="AB11" s="43" t="s">
+      <c r="AB11" s="44" t="s">
         <v>12</v>
       </c>
       <c r="AC11" s="39"/>
@@ -2292,7 +2304,7 @@
       <c r="AJ11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AK11" s="49" t="s">
+      <c r="AK11" s="50" t="s">
         <v>72</v>
       </c>
       <c r="AL11" s="24">
@@ -2304,7 +2316,7 @@
       <c r="AQ11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AR11" s="54" t="s">
+      <c r="AR11" s="55" t="s">
         <v>73</v>
       </c>
       <c r="AS11" s="25">
@@ -2362,13 +2374,13 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="47" t="s">
+      <c r="AJ12" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="AK12" s="51" t="s">
+      <c r="AK12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="AL12" s="47">
+      <c r="AL12" s="48">
         <v>22</v>
       </c>
       <c r="AM12" s="39"/>
@@ -2415,16 +2427,16 @@
         <v>84</v>
       </c>
       <c r="AL13" s="5"/>
-      <c r="AQ13" s="48" t="s">
+      <c r="AQ13" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AR13" s="56" t="s">
+      <c r="AR13" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AS13" s="48">
+      <c r="AS13" s="49">
         <v>11</v>
       </c>
-      <c r="AT13" s="48">
+      <c r="AT13" s="49">
         <v>21</v>
       </c>
       <c r="AU13" s="39"/>
@@ -2444,7 +2456,7 @@
       <c r="AJ14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AK14" s="49" t="s">
+      <c r="AK14" s="50" t="s">
         <v>88</v>
       </c>
       <c r="AL14" s="24">
@@ -2462,20 +2474,20 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="T15" s="38" t="s">
+      <c r="T15" s="23" t="s">
         <v>51</v>
       </c>
       <c r="U15" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="V15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="W15" s="39"/>
+      <c r="W15" s="5"/>
       <c r="Y15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="41" t="s">
+      <c r="Z15" s="42" t="s">
         <v>74</v>
       </c>
       <c r="AA15" s="21">
@@ -2496,7 +2508,7 @@
       <c r="AK15" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="AZ15" s="59"/>
+      <c r="AZ15" s="60"/>
     </row>
     <row r="16" ht="15" spans="1:41">
       <c r="A16"/>
@@ -2506,22 +2518,25 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
+      <c r="U16" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="Z16" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="AJ16" s="47" t="s">
+      <c r="AJ16" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AK16" s="51" t="s">
+      <c r="AK16" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="AL16" s="47">
+      <c r="AL16" s="48">
         <v>11</v>
       </c>
-      <c r="AM16" s="47">
+      <c r="AM16" s="48">
         <v>21</v>
       </c>
-      <c r="AN16" s="47">
+      <c r="AN16" s="48">
         <v>22</v>
       </c>
       <c r="AO16" s="39"/>
@@ -2530,27 +2545,40 @@
       <c r="A17"/>
       <c r="B17" s="5"/>
       <c r="C17" s="26"/>
+      <c r="U17" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="Z17" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:34">
       <c r="A18"/>
       <c r="B18" s="5"/>
       <c r="C18" s="26"/>
-      <c r="Y18" s="43" t="s">
+      <c r="T18" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" s="39"/>
+      <c r="Y18" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="Z18" s="44" t="s">
+      <c r="Z18" s="45" t="s">
         <v>81</v>
       </c>
       <c r="AA18" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AB18" s="48" t="s">
+      <c r="AB18" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AC18" s="48" t="s">
+      <c r="AC18" s="49" t="s">
         <v>62</v>
       </c>
       <c r="AD18" s="39"/>

--- a/Java/ClassStructure.xlsx
+++ b/Java/ClassStructure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>CLASS</t>
   </si>
@@ -22,13 +22,16 @@
     <t>public class Jython</t>
   </si>
   <si>
-    <t>public class Path</t>
+    <t>public class GetPath</t>
   </si>
   <si>
     <t>public class FFmpeg</t>
   </si>
   <si>
     <t>public class Rename</t>
+  </si>
+  <si>
+    <t>public class EditPath</t>
   </si>
   <si>
     <t>public class VideoFolder</t>
@@ -312,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -339,23 +342,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,37 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +393,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -446,14 +450,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -462,7 +458,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +473,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -534,7 +537,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,13 +579,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,85 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,19 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,43 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,6 +834,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -848,17 +860,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -869,6 +874,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,17 +898,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,16 +936,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,119 +954,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,9 +1206,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1573,8 +1573,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1612,7 +1612,7 @@
     <col min="57" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:50">
+    <row r="1" spans="2:50">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1636,14 +1636,14 @@
       <c r="Z1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="50" t="s">
+      <c r="AK1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="55" t="s">
+      <c r="AR1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="58" t="s">
-        <v>5</v>
+      <c r="AX1" s="57" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:52">
@@ -1682,30 +1682,30 @@
       <c r="AH2" s="14"/>
       <c r="AI2" s="36"/>
       <c r="AJ2" s="14"/>
-      <c r="AK2" s="51"/>
+      <c r="AK2" s="50"/>
       <c r="AL2" s="14"/>
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
       <c r="AP2" s="36"/>
       <c r="AQ2" s="14"/>
-      <c r="AR2" s="56"/>
+      <c r="AR2" s="55"/>
       <c r="AS2" s="14"/>
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
       <c r="AV2" s="8"/>
       <c r="AW2" s="14"/>
-      <c r="AX2" s="59"/>
+      <c r="AX2" s="58"/>
       <c r="AY2" s="14"/>
       <c r="AZ2" s="36"/>
     </row>
     <row r="3" ht="14.25" spans="2:47">
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -1717,56 +1717,56 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="P3" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U3" s="30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="21">
         <v>11</v>
       </c>
       <c r="Z3" s="42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="47">
         <v>11</v>
       </c>
-      <c r="AB3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ3" s="48">
-        <v>11</v>
-      </c>
-      <c r="AK3" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL3" s="48" t="s">
+      <c r="AK3" s="51" t="s">
         <v>14</v>
+      </c>
+      <c r="AL3" s="47" t="s">
+        <v>15</v>
       </c>
       <c r="AM3" s="39"/>
       <c r="AN3" s="39"/>
       <c r="AO3" s="39"/>
-      <c r="AQ3" s="49">
+      <c r="AQ3" s="48">
         <v>11</v>
       </c>
-      <c r="AR3" s="57" t="s">
+      <c r="AR3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="48" t="s">
         <v>15</v>
-      </c>
-      <c r="AS3" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT3" s="49" t="s">
-        <v>14</v>
       </c>
       <c r="AU3" s="39"/>
     </row>
     <row r="4" ht="15" spans="2:47">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1778,61 +1778,60 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="O4" s="31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>18</v>
-      </c>
       <c r="U4" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="21">
         <v>12</v>
       </c>
       <c r="Z4" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ4" s="24">
         <v>21</v>
       </c>
-      <c r="AK4" s="50" t="s">
-        <v>23</v>
+      <c r="AK4" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="AL4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM4" s="5"/>
-      <c r="AQ4" s="49">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="48">
         <v>21</v>
       </c>
-      <c r="AR4" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS4" s="49" t="s">
-        <v>11</v>
+      <c r="AR4" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS4" s="48" t="s">
+        <v>12</v>
       </c>
       <c r="AT4" s="39"/>
       <c r="AU4" s="39"/>
     </row>
     <row r="5" ht="15" spans="2:44">
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1844,22 +1843,22 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="P5" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y5" s="44">
         <v>13</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5" s="44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC5" s="39"/>
       <c r="AD5" s="39"/>
@@ -1867,29 +1866,29 @@
       <c r="AF5" s="39"/>
       <c r="AG5" s="39"/>
       <c r="AH5" s="39"/>
-      <c r="AJ5" s="48">
+      <c r="AJ5" s="47">
         <v>22</v>
       </c>
-      <c r="AK5" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL5" s="48" t="s">
-        <v>11</v>
+      <c r="AK5" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL5" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="AM5" s="39"/>
       <c r="AN5" s="39"/>
       <c r="AO5" s="39"/>
       <c r="AR5" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="15" spans="2:52">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -1902,24 +1901,24 @@
       <c r="M6" s="17"/>
       <c r="N6" s="6"/>
       <c r="O6" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="39"/>
       <c r="S6" s="8"/>
       <c r="T6" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U6" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="8"/>
@@ -1927,10 +1926,10 @@
         <v>31</v>
       </c>
       <c r="Z6" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
@@ -1940,20 +1939,20 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="53"/>
+      <c r="AJ6" s="52"/>
       <c r="AK6" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR6" s="57" t="s">
-        <v>38</v>
+      <c r="AQ6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR6" s="56" t="s">
+        <v>39</v>
       </c>
       <c r="AS6" s="39"/>
       <c r="AT6" s="39"/>
@@ -1966,11 +1965,11 @@
     </row>
     <row r="7" customFormat="1" ht="15" spans="2:52">
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -1989,7 +1988,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="5"/>
       <c r="U7" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -1997,11 +1996,11 @@
       <c r="Y7" s="44">
         <v>32</v>
       </c>
-      <c r="Z7" s="47" t="s">
-        <v>42</v>
+      <c r="Z7" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="AA7" s="44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB7" s="39"/>
       <c r="AC7" s="39"/>
@@ -2011,11 +2010,11 @@
       <c r="AG7" s="39"/>
       <c r="AH7" s="39"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK7" s="52" t="s">
-        <v>43</v>
+      <c r="AJ7" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK7" s="51" t="s">
+        <v>44</v>
       </c>
       <c r="AL7" s="39"/>
       <c r="AM7" s="39"/>
@@ -2023,10 +2022,10 @@
       <c r="AO7" s="39"/>
       <c r="AP7" s="8"/>
       <c r="AQ7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR7" s="55" t="s">
         <v>45</v>
+      </c>
+      <c r="AR7" s="54" t="s">
+        <v>46</v>
       </c>
       <c r="AS7" s="25">
         <v>21</v>
@@ -2041,11 +2040,11 @@
     </row>
     <row r="8" ht="15" spans="2:45">
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2057,53 +2056,53 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="T8" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y8" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="47" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="Z8" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="AA8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AD8" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE8" s="48" t="s">
+      <c r="AB8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="AF8" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG8" s="49" t="s">
-        <v>14</v>
+      <c r="AD8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE8" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="48" t="s">
+        <v>15</v>
       </c>
       <c r="AH8" s="39"/>
       <c r="AJ8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK8" s="50" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="AK8" s="49" t="s">
+        <v>55</v>
       </c>
       <c r="AQ8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR8" s="55" t="s">
         <v>56</v>
+      </c>
+      <c r="AR8" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="AS8" s="25">
         <v>11</v>
@@ -2111,11 +2110,11 @@
     </row>
     <row r="9" ht="15" spans="2:47">
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2127,46 +2126,39 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="U9" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z9" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="21">
         <v>11</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
+        <v>13</v>
+      </c>
       <c r="AJ9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK9" s="50" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="AK9" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="AL9" s="24">
         <v>11</v>
       </c>
-      <c r="AM9" s="5"/>
-      <c r="AQ9" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR9" s="57" t="s">
+      <c r="AQ9" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="AS9" s="49">
+      <c r="AR9" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS9" s="48">
         <v>11</v>
       </c>
-      <c r="AT9" s="49">
+      <c r="AT9" s="48">
         <v>21</v>
       </c>
       <c r="AU9" s="39"/>
@@ -2174,7 +2166,7 @@
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:52">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -2194,27 +2186,27 @@
       <c r="R10" s="5"/>
       <c r="S10" s="8"/>
       <c r="T10" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U10" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z10" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA10" s="21">
         <v>12</v>
       </c>
       <c r="AB10" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -2222,12 +2214,12 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="54"/>
+      <c r="AI10" s="53"/>
       <c r="AJ10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK10" s="50" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="AK10" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="AL10" s="24">
         <v>22</v>
@@ -2238,7 +2230,7 @@
       <c r="AP10" s="8"/>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -2251,49 +2243,47 @@
     </row>
     <row r="11" ht="14.25" spans="1:46">
       <c r="A11" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+        <v>15</v>
+      </c>
       <c r="U11" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z11" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="Z11" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="AA11" s="44">
         <v>13</v>
       </c>
       <c r="AB11" s="44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC11" s="39"/>
       <c r="AD11" s="39"/>
@@ -2302,10 +2292,10 @@
       <c r="AG11" s="39"/>
       <c r="AH11" s="39"/>
       <c r="AJ11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK11" s="50" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="AK11" s="49" t="s">
+        <v>73</v>
       </c>
       <c r="AL11" s="24">
         <v>11</v>
@@ -2314,33 +2304,32 @@
         <v>22</v>
       </c>
       <c r="AQ11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR11" s="55" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="AR11" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="AS11" s="25">
         <v>21</v>
       </c>
       <c r="AT11" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15" spans="1:52">
       <c r="A12" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12"/>
+        <v>63</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2353,17 +2342,17 @@
       <c r="R12" s="5"/>
       <c r="S12" s="8"/>
       <c r="T12" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
@@ -2374,13 +2363,13 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK12" s="52" t="s">
+      <c r="AJ12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AL12" s="48">
+      <c r="AK12" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL12" s="47">
         <v>22</v>
       </c>
       <c r="AM12" s="39"/>
@@ -2389,7 +2378,7 @@
       <c r="AP12" s="8"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -2402,41 +2391,40 @@
     </row>
     <row r="13" ht="15" spans="1:47">
       <c r="A13" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z13" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK13" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL13" s="5"/>
-      <c r="AQ13" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR13" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AS13" s="49">
+      <c r="AQ13" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR13" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS13" s="48">
         <v>11</v>
       </c>
-      <c r="AT13" s="49">
+      <c r="AT13" s="48">
         <v>21</v>
       </c>
       <c r="AU13" s="39"/>
@@ -2445,19 +2433,17 @@
       <c r="A14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
       <c r="U14" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z14" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK14" s="50" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="AK14" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="AL14" s="24">
         <v>11</v>
@@ -2470,25 +2456,20 @@
       <c r="A15"/>
       <c r="B15" s="5"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
       <c r="T15" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="42" t="s">
         <v>75</v>
-      </c>
-      <c r="W15" s="5"/>
-      <c r="Y15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="42" t="s">
-        <v>74</v>
       </c>
       <c r="AA15" s="21">
         <v>11</v>
@@ -2500,43 +2481,39 @@
         <v>13</v>
       </c>
       <c r="AD15" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE15" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ15" s="60"/>
+        <v>91</v>
+      </c>
+      <c r="AZ15" s="59"/>
     </row>
     <row r="16" ht="15" spans="1:41">
       <c r="A16"/>
       <c r="B16" s="5"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
       <c r="U16" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z16" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ16" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK16" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="AL16" s="48">
+      <c r="AJ16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK16" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL16" s="47">
         <v>11</v>
       </c>
-      <c r="AM16" s="48">
+      <c r="AM16" s="47">
         <v>21</v>
       </c>
-      <c r="AN16" s="48">
+      <c r="AN16" s="47">
         <v>22</v>
       </c>
       <c r="AO16" s="39"/>
@@ -2546,10 +2523,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="26"/>
       <c r="U17" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z17" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:34">
@@ -2557,29 +2534,29 @@
       <c r="B18" s="5"/>
       <c r="C18" s="26"/>
       <c r="T18" s="38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U18" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V18" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" s="39"/>
       <c r="Y18" s="44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z18" s="45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB18" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC18" s="49" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="AB18" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="AD18" s="39"/>
       <c r="AE18" s="39"/>
@@ -2611,9 +2588,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="8"/>
-      <c r="Y19"/>
       <c r="Z19" s="10"/>
-      <c r="AA19"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2708,9 +2683,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="8"/>
-      <c r="Y21"/>
       <c r="Z21" s="10"/>
-      <c r="AA21"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
@@ -2761,9 +2734,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="8"/>
-      <c r="Y22"/>
       <c r="Z22" s="10"/>
-      <c r="AA22"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
